--- a/mse-set_creation/kt2cards.xlsx
+++ b/mse-set_creation/kt2cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24519"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\projects\M15-Magic-Pack-main\data\mse-set_creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414A7E30-6847-4609-BCA3-7AB16342BB84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28352C23-F8F1-4104-A94C-4ED0A7875540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{99BC69B6-EC6D-4401-A482-489E2ED58CBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{99BC69B6-EC6D-4401-A482-489E2ED58CBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Ref" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="extra_card_fields" sheetId="4" r:id="rId4"/>
     <sheet name="extra_card_style" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,6 +58,12 @@
     <t>One of:</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Type of field.</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
@@ -85,12 +91,6 @@
     <t>info</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Type of field.</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -203,6 +203,84 @@
   </si>
   <si>
     <t>Index for moving through the fields with the tab key. The default is from left to right and then top to bottom.</t>
+  </si>
+  <si>
+    <t>Values contain</t>
+  </si>
+  <si>
+    <t>Displayed as</t>
+  </si>
+  <si>
+    <t>Text with markup (a tagged string)</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>A choice from a list</t>
+  </si>
+  <si>
+    <t>Text or an image</t>
+  </si>
+  <si>
+    <t>Zero or more choices from a list</t>
+  </si>
+  <si>
+    <t>A single image or multiple images</t>
+  </si>
+  <si>
+    <t>A choice from a list of installed packages</t>
+  </si>
+  <si>
+    <t>Text and/or an image</t>
+  </si>
+  <si>
+    <r>
+      <t>yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>no</t>
+    </r>
+  </si>
+  <si>
+    <t>Text or an image or both</t>
+  </si>
+  <si>
+    <t>Any color or a restricted selection from a list</t>
+  </si>
+  <si>
+    <t>A box filled with the color</t>
+  </si>
+  <si>
+    <t>Any image</t>
+  </si>
+  <si>
+    <t>The image</t>
+  </si>
+  <si>
+    <t>A symbol edited with the symbol editor</t>
+  </si>
+  <si>
+    <t>An informational message, for example to group fields together.</t>
+  </si>
+  <si>
+    <t>A box containing the label</t>
   </si>
   <si>
     <t>"text"</t>
@@ -517,82 +595,52 @@
     <t>Script to determine the value to show.</t>
   </si>
   <si>
-    <t>Values contain</t>
-  </si>
-  <si>
-    <t>Displayed as</t>
-  </si>
-  <si>
-    <t>Text with markup (a tagged string)</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>A choice from a list</t>
-  </si>
-  <si>
-    <t>Text or an image</t>
-  </si>
-  <si>
-    <t>Zero or more choices from a list</t>
-  </si>
-  <si>
-    <t>A single image or multiple images</t>
-  </si>
-  <si>
-    <t>A choice from a list of installed packages</t>
-  </si>
-  <si>
-    <t>Text and/or an image</t>
-  </si>
-  <si>
-    <r>
-      <t>yes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>no</t>
-    </r>
-  </si>
-  <si>
-    <t>Text or an image or both</t>
-  </si>
-  <si>
-    <t>Any color or a restricted selection from a list</t>
-  </si>
-  <si>
-    <t>A box filled with the color</t>
-  </si>
-  <si>
-    <t>Any image</t>
-  </si>
-  <si>
-    <t>The image</t>
-  </si>
-  <si>
-    <t>A symbol edited with the symbol editor</t>
-  </si>
-  <si>
-    <t>An informational message, for example to group fields together.</t>
-  </si>
-  <si>
-    <t>A box containing the label</t>
+    <t>save_value</t>
+  </si>
+  <si>
+    <t>show_statistics</t>
+  </si>
+  <si>
+    <t>multi_line</t>
+  </si>
+  <si>
+    <t>card_list_allow</t>
+  </si>
+  <si>
+    <t>card_list_visible</t>
+  </si>
+  <si>
+    <t>card_list_name</t>
+  </si>
+  <si>
+    <t>card_list_column</t>
+  </si>
+  <si>
+    <t>card_list_width</t>
+  </si>
+  <si>
+    <t>card_list_alignment</t>
+  </si>
+  <si>
+    <t>sort_script</t>
+  </si>
+  <si>
+    <t>tab_index</t>
+  </si>
+  <si>
+    <t>allow_custom</t>
+  </si>
+  <si>
+    <t>choice_colors</t>
+  </si>
+  <si>
+    <t>choice_colors_cardlist</t>
+  </si>
+  <si>
+    <t>default_name</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>true</t>
@@ -601,34 +649,37 @@
     <t>false</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Card type</t>
+  </si>
+  <si>
+    <t>Strategic Ploy</t>
+  </si>
+  <si>
+    <t>Strategic Ploy,Tactical Ploy,Equipment</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>Cost</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Strategic Ploy</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>1,2,3,4</t>
   </si>
   <si>
-    <t>Strategic Ploy,Tactical Ploy,Equipment</t>
-  </si>
-  <si>
     <t>rule</t>
   </si>
   <si>
     <t>Card rules</t>
   </si>
   <si>
-    <t>Card type</t>
+    <t>killteam</t>
+  </si>
+  <si>
+    <t>Kill Team</t>
   </si>
   <si>
     <t>restriction</t>
@@ -637,113 +688,62 @@
     <t>Kill Team and Operative restrictions</t>
   </si>
   <si>
+    <t>Restriction</t>
+  </si>
+  <si>
     <t>effect</t>
   </si>
   <si>
     <t>Type of effect</t>
   </si>
   <si>
-    <t>Restriction</t>
-  </si>
-  <si>
     <t>Effect</t>
   </si>
   <si>
     <t>Ability,Action,Attack,Effect</t>
   </si>
   <si>
-    <t>save_value</t>
-  </si>
-  <si>
-    <t>show_statistics</t>
-  </si>
-  <si>
-    <t>multi_line</t>
-  </si>
-  <si>
-    <t>card_list_allow</t>
-  </si>
-  <si>
-    <t>card_list_visible</t>
-  </si>
-  <si>
-    <t>card_list_name</t>
-  </si>
-  <si>
-    <t>card_list_column</t>
-  </si>
-  <si>
-    <t>card_list_width</t>
-  </si>
-  <si>
-    <t>card_list_alignment</t>
-  </si>
-  <si>
-    <t>sort_script</t>
-  </si>
-  <si>
-    <t>tab_index</t>
-  </si>
-  <si>
-    <t>allow_custom</t>
-  </si>
-  <si>
-    <t>choice_colors</t>
-  </si>
-  <si>
-    <t>choice_colors_cardlist</t>
-  </si>
-  <si>
-    <t>default_name</t>
-  </si>
-  <si>
     <t>wpn_a</t>
   </si>
   <si>
+    <t>Attack value</t>
+  </si>
+  <si>
     <t>wpn_bsws</t>
   </si>
   <si>
+    <t>BS/WS</t>
+  </si>
+  <si>
+    <t>3+</t>
+  </si>
+  <si>
+    <t>2+,3+,4+,5+,6+</t>
+  </si>
+  <si>
     <t>wpn_d</t>
   </si>
   <si>
-    <t>Attack value</t>
-  </si>
-  <si>
-    <t>BS/WS</t>
-  </si>
-  <si>
-    <t>3+</t>
-  </si>
-  <si>
-    <t>2+,3+,4+,5+,6+</t>
-  </si>
-  <si>
     <t>Damage / Critical</t>
   </si>
   <si>
     <t>wpn_sr</t>
   </si>
   <si>
+    <t>Special rules</t>
+  </si>
+  <si>
     <t>wpn_i</t>
   </si>
   <si>
     <t>Critical hit rules</t>
-  </si>
-  <si>
-    <t>Special rules</t>
-  </si>
-  <si>
-    <t>killteam</t>
-  </si>
-  <si>
-    <t>Kill Team</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,7 +817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -835,9 +835,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -850,6 +847,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1171,14 +1174,14 @@
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="2"/>
     <col min="2" max="2" width="30.85546875" style="2" customWidth="1"/>
     <col min="3" max="16384" width="14.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1192,261 +1195,261 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="13"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="13"/>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="13"/>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="13"/>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="13"/>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="13"/>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="13"/>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="13"/>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="13"/>
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="13"/>
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="5" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="13"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="7" t="b">
+      <c r="B17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="7" t="b">
+      <c r="B18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7" t="b">
+      <c r="B19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7" t="b">
+      <c r="B20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="11">
         <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="11">
         <v>100</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="7" t="b">
+      <c r="B23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7" t="b">
+      <c r="B24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1456,25 +1459,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="6"/>
@@ -1482,131 +1485,131 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="11">
         <v>0</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>105</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>7</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>8</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>111</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>113</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="B37" s="3" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>119</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>14</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
@@ -1623,438 +1626,438 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="7" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="13"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="6"/>
       <c r="E43" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="13"/>
+      <c r="B44" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="13"/>
+      <c r="B45" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>61</v>
+      <c r="D45" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="7" t="b">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="13"/>
+      <c r="B46" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="8"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="13"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="6"/>
       <c r="E48" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="13"/>
+      <c r="B49" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="13"/>
+      <c r="B50" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="13"/>
+      <c r="B51" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>61</v>
+      <c r="D51" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="7" t="s">
-        <v>69</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="13"/>
+      <c r="B52" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="7" t="s">
-        <v>72</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="13"/>
+      <c r="B53" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="7" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="13"/>
+      <c r="B54" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="7"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="13"/>
+      <c r="B55" s="11"/>
       <c r="C55" s="3"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-    </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
+      <c r="E55" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1">
+      <c r="A57" s="13"/>
       <c r="B57" s="3" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
+    <row r="58" spans="1:5" ht="15" customHeight="1">
+      <c r="A58" s="13"/>
       <c r="B58" s="3" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B60" s="7" t="s">
+    <row r="59" spans="1:5" ht="15" customHeight="1">
+      <c r="A59" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="8"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="13"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="6"/>
       <c r="E61" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="13"/>
+      <c r="B62" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="13"/>
+      <c r="B63" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="8" t="s">
+      <c r="D63" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="13"/>
+      <c r="B64" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="13"/>
+      <c r="B65" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
-      <c r="B64" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="B65" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>91</v>
+      <c r="D65" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B66" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="8"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="13"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="7"/>
       <c r="D67" s="6"/>
       <c r="E67" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="13"/>
+      <c r="B68" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="13"/>
+      <c r="B69" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="13"/>
+      <c r="B70" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>61</v>
+      <c r="D70" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
-      <c r="B71" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="7" t="b">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="13"/>
+      <c r="B71" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
-      <c r="B72" s="7" t="s">
-        <v>69</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="13"/>
+      <c r="B72" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B75" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="3" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2121,320 +2124,333 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="3.42578125" style="10" customWidth="1"/>
-    <col min="16" max="16" width="3.140625" style="10" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="10" customWidth="1"/>
-    <col min="18" max="18" width="38.28515625" style="10" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="3" width="20.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="3.42578125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="3.140625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="9" customWidth="1"/>
+    <col min="18" max="18" width="38.28515625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:25">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="R3" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="10" t="s">
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K4" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="R4" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="M1" s="13" t="s">
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="H5" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="Q1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="10" t="s">
+      <c r="L6" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="M6" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="K7" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="M7" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="W1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="X1" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="K8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="M8" s="15">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="11"/>
-      <c r="Q3" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="M4" s="11"/>
-      <c r="Q4" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="Q8" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="Q8" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2455,7 +2471,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2471,7 +2487,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2487,7 +2503,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/mse-set_creation/kt2cards.xlsx
+++ b/mse-set_creation/kt2cards.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24519"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\projects\M15-Magic-Pack-main\data\mse-set_creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28352C23-F8F1-4104-A94C-4ED0A7875540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBFA58A-00B9-4E65-964C-0DFFA55AF5A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{99BC69B6-EC6D-4401-A482-489E2ED58CBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{99BC69B6-EC6D-4401-A482-489E2ED58CBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Ref" sheetId="1" r:id="rId1"/>
-    <sheet name="card_fields" sheetId="2" r:id="rId2"/>
-    <sheet name="card_style" sheetId="3" r:id="rId3"/>
-    <sheet name="extra_card_fields" sheetId="4" r:id="rId4"/>
-    <sheet name="extra_card_style" sheetId="5" r:id="rId5"/>
+    <sheet name="Style Ref" sheetId="6" r:id="rId2"/>
+    <sheet name="struct" sheetId="8" r:id="rId3"/>
+    <sheet name="card_fields" sheetId="2" r:id="rId4"/>
+    <sheet name="card_style" sheetId="3" r:id="rId5"/>
+    <sheet name="extra_card_fields" sheetId="4" r:id="rId6"/>
+    <sheet name="extra_card_style" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="404">
   <si>
     <t>Property</t>
   </si>
@@ -58,39 +60,39 @@
     <t>One of:</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>choice</t>
+  </si>
+  <si>
+    <t>multiple choice</t>
+  </si>
+  <si>
+    <t>package choice</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
     <t>Type of field.</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>choice</t>
-  </si>
-  <si>
-    <t>multiple choice</t>
-  </si>
-  <si>
-    <t>package choice</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>symbol</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>info</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -203,84 +205,6 @@
   </si>
   <si>
     <t>Index for moving through the fields with the tab key. The default is from left to right and then top to bottom.</t>
-  </si>
-  <si>
-    <t>Values contain</t>
-  </si>
-  <si>
-    <t>Displayed as</t>
-  </si>
-  <si>
-    <t>Text with markup (a tagged string)</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>A choice from a list</t>
-  </si>
-  <si>
-    <t>Text or an image</t>
-  </si>
-  <si>
-    <t>Zero or more choices from a list</t>
-  </si>
-  <si>
-    <t>A single image or multiple images</t>
-  </si>
-  <si>
-    <t>A choice from a list of installed packages</t>
-  </si>
-  <si>
-    <t>Text and/or an image</t>
-  </si>
-  <si>
-    <r>
-      <t>yes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>no</t>
-    </r>
-  </si>
-  <si>
-    <t>Text or an image or both</t>
-  </si>
-  <si>
-    <t>Any color or a restricted selection from a list</t>
-  </si>
-  <si>
-    <t>A box filled with the color</t>
-  </si>
-  <si>
-    <t>Any image</t>
-  </si>
-  <si>
-    <t>The image</t>
-  </si>
-  <si>
-    <t>A symbol edited with the symbol editor</t>
-  </si>
-  <si>
-    <t>An informational message, for example to group fields together.</t>
-  </si>
-  <si>
-    <t>A box containing the label</t>
   </si>
   <si>
     <t>"text"</t>
@@ -595,6 +519,141 @@
     <t>Script to determine the value to show.</t>
   </si>
   <si>
+    <t>Values contain</t>
+  </si>
+  <si>
+    <t>Displayed as</t>
+  </si>
+  <si>
+    <t>Text with markup (a tagged string)</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>A choice from a list</t>
+  </si>
+  <si>
+    <t>Text or an image</t>
+  </si>
+  <si>
+    <t>Zero or more choices from a list</t>
+  </si>
+  <si>
+    <t>A single image or multiple images</t>
+  </si>
+  <si>
+    <t>A choice from a list of installed packages</t>
+  </si>
+  <si>
+    <t>Text and/or an image</t>
+  </si>
+  <si>
+    <r>
+      <t>yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>no</t>
+    </r>
+  </si>
+  <si>
+    <t>Text or an image or both</t>
+  </si>
+  <si>
+    <t>Any color or a restricted selection from a list</t>
+  </si>
+  <si>
+    <t>A box filled with the color</t>
+  </si>
+  <si>
+    <t>Any image</t>
+  </si>
+  <si>
+    <t>The image</t>
+  </si>
+  <si>
+    <t>A symbol edited with the symbol editor</t>
+  </si>
+  <si>
+    <t>An informational message, for example to group fields together.</t>
+  </si>
+  <si>
+    <t>A box containing the label</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Strategic Ploy</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>Strategic Ploy,Tactical Ploy,Equipment</t>
+  </si>
+  <si>
+    <t>rule</t>
+  </si>
+  <si>
+    <t>Card rules</t>
+  </si>
+  <si>
+    <t>Card type</t>
+  </si>
+  <si>
+    <t>restriction</t>
+  </si>
+  <si>
+    <t>Kill Team and Operative restrictions</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>Type of effect</t>
+  </si>
+  <si>
+    <t>Restriction</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>Ability,Action,Attack,Effect</t>
+  </si>
+  <si>
     <t>save_value</t>
   </si>
   <si>
@@ -640,40 +699,40 @@
     <t>default_name</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Card type</t>
-  </si>
-  <si>
-    <t>Strategic Ploy</t>
-  </si>
-  <si>
-    <t>Strategic Ploy,Tactical Ploy,Equipment</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>rule</t>
-  </si>
-  <si>
-    <t>Card rules</t>
+    <t>wpn_a</t>
+  </si>
+  <si>
+    <t>wpn_bsws</t>
+  </si>
+  <si>
+    <t>wpn_d</t>
+  </si>
+  <si>
+    <t>Attack value</t>
+  </si>
+  <si>
+    <t>BS/WS</t>
+  </si>
+  <si>
+    <t>3+</t>
+  </si>
+  <si>
+    <t>2+,3+,4+,5+,6+</t>
+  </si>
+  <si>
+    <t>Damage / Critical</t>
+  </si>
+  <si>
+    <t>wpn_sr</t>
+  </si>
+  <si>
+    <t>wpn_i</t>
+  </si>
+  <si>
+    <t>Critical hit rules</t>
+  </si>
+  <si>
+    <t>Special rules</t>
   </si>
   <si>
     <t>killteam</t>
@@ -682,68 +741,1116 @@
     <t>Kill Team</t>
   </si>
   <si>
-    <t>restriction</t>
-  </si>
-  <si>
-    <t>Kill Team and Operative restrictions</t>
-  </si>
-  <si>
-    <t>Restriction</t>
-  </si>
-  <si>
-    <t>effect</t>
-  </si>
-  <si>
-    <t>Type of effect</t>
-  </si>
-  <si>
-    <t>Effect</t>
-  </si>
-  <si>
-    <t>Ability,Action,Attack,Effect</t>
-  </si>
-  <si>
-    <t>wpn_a</t>
-  </si>
-  <si>
-    <t>Attack value</t>
-  </si>
-  <si>
-    <t>wpn_bsws</t>
-  </si>
-  <si>
-    <t>BS/WS</t>
-  </si>
-  <si>
-    <t>3+</t>
-  </si>
-  <si>
-    <t>2+,3+,4+,5+,6+</t>
-  </si>
-  <si>
-    <t>wpn_d</t>
-  </si>
-  <si>
-    <t>Damage / Critical</t>
-  </si>
-  <si>
-    <t>wpn_sr</t>
-  </si>
-  <si>
-    <t>Special rules</t>
-  </si>
-  <si>
-    <t>wpn_i</t>
-  </si>
-  <si>
-    <t>Critical hit rules</t>
+    <t>z index</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stacking of this box, fields with a higher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>z index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are placed on top of those with a lower index.</t>
+    </r>
+  </si>
+  <si>
+    <t>scriptable real number</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Distance between left edge of the box and the left of the card in pixels.</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>Width of the box in pixels.</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Distance between right edge of the box and the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the card in pixels.</t>
+    </r>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>Distance between top edge of the box and the top of the card in pixels.</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>Height of the box in pixels.</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Distance between bottom edge of the box and the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>top</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the card in pixels.</t>
+    </r>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>scriptable number</t>
+  </si>
+  <si>
+    <t>Rotation of this box, in degrees counter clockwise.</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>scriptable boolean</t>
+  </si>
+  <si>
+    <t>Is this field visible at all?</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>scriptable image</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>A mask to apply to the box, black areas in the mask become transparent, similar to set_mask.</t>
+  </si>
+  <si>
+    <t>font</t>
+  </si>
+  <si>
+    <t>Font to render the text.</t>
+  </si>
+  <si>
+    <t>symbol font</t>
+  </si>
+  <si>
+    <t>Font to render symbols in the text (optional).</t>
+  </si>
+  <si>
+    <t>always symbol</t>
+  </si>
+  <si>
+    <t>Should all text be rendered with symbols?</t>
+  </si>
+  <si>
+    <t>Text that is not supported by the symbol font is still rendered as normal text.</t>
+  </si>
+  <si>
+    <t>allow formating</t>
+  </si>
+  <si>
+    <t>Is custom formating (bold, italic) allowed?</t>
+  </si>
+  <si>
+    <t>scriptable alignment</t>
+  </si>
+  <si>
+    <t>top left</t>
+  </si>
+  <si>
+    <t>Alignment of the text.</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>"left to right"</t>
+  </si>
+  <si>
+    <t>padding left</t>
+  </si>
+  <si>
+    <t>Padding between the text and the border of the box, in pixels.</t>
+  </si>
+  <si>
+    <t>padding right</t>
+  </si>
+  <si>
+    <t>padding top</t>
+  </si>
+  <si>
+    <t>padding bottom</t>
+  </si>
+  <si>
+    <t>padding left min</t>
+  </si>
+  <si>
+    <t>∞</t>
+  </si>
+  <si>
+    <t>Minimal padding around the field.</t>
+  </si>
+  <si>
+    <t>When the text is scaled down the padding is scaled as well, but it becomes no smaller than this.</t>
+  </si>
+  <si>
+    <t>padding right min</t>
+  </si>
+  <si>
+    <t>padding top min</t>
+  </si>
+  <si>
+    <t>padding bottom min</t>
+  </si>
+  <si>
+    <t>line height soft</t>
+  </si>
+  <si>
+    <t>Multiplier for the line height of 'soft' line breaks. These are breaks caused by wrapping around lines that are too long.</t>
+  </si>
+  <si>
+    <t>line height hard</t>
+  </si>
+  <si>
+    <t>Multiplier for the line height of 'hard' line breaks. These are breaks caused by the enter key.</t>
+  </si>
+  <si>
+    <t>line height line</t>
+  </si>
+  <si>
+    <t>line height soft max</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>When there is still vertical room in the text box, increase the line heights to at most these values to spread the text more evenly.</t>
+  </si>
+  <si>
+    <t>line height hard max</t>
+  </si>
+  <si>
+    <t>line height line max</t>
+  </si>
+  <si>
+    <t>paragraph height</t>
+  </si>
+  <si>
+    <t>real number</t>
+  </si>
+  <si>
+    <t>flexible</t>
+  </si>
+  <si>
+    <t>A mask that indicates where in the box text can be placed.</t>
+  </si>
+  <si>
+    <t>Text is never put in black areas of the box:</t>
+  </si>
+  <si>
+    <t>The same mask image is also used to determine the size and shape of the box. To include a certain pixel in the size/shape but not allow text to be placed there, it can be made dark gray (a value less than 128).</t>
+  </si>
+  <si>
+    <t>content width</t>
+  </si>
+  <si>
+    <t>automatic</t>
+  </si>
+  <si>
+    <t>When read from a script, gives the width of the current content in this box.</t>
+  </si>
+  <si>
+    <t>content height</t>
+  </si>
+  <si>
+    <t>When read from a script, gives the height of the current content in this box.</t>
+  </si>
+  <si>
+    <t>content lines</t>
+  </si>
+  <si>
+    <t>When read from a script, gives the number of lines of the current content in this box.</t>
+  </si>
+  <si>
+    <t>popup style</t>
+  </si>
+  <si>
+    <t>"drop down"</t>
+  </si>
+  <si>
+    <t>Where to place the drop down box for editing the value.</t>
+  </si>
+  <si>
+    <t>render style</t>
+  </si>
+  <si>
+    <t>choice render style</t>
+  </si>
+  <si>
+    <t>How should the field be rendered?</t>
+  </si>
+  <si>
+    <t>combine</t>
+  </si>
+  <si>
+    <t>"normal"</t>
+  </si>
+  <si>
+    <t>How to combine the image with the background? Can be overridden using the set_combine function.</t>
+  </si>
+  <si>
+    <t>"stretch"</t>
+  </si>
+  <si>
+    <t>Alignment of text and images in the box.</t>
+  </si>
+  <si>
+    <t>choice images</t>
+  </si>
+  <si>
+    <t>map of images</t>
+  </si>
+  <si>
+    <t>An alternative way to specify what image to show.</t>
+  </si>
+  <si>
+    <t>For each choice a separate image is specified.</t>
+  </si>
+  <si>
+    <t>When read from a script, gives the width of the current choice image in this box.</t>
+  </si>
+  <si>
+    <t>This is only useful when the alignment is changed, otherwise it is always equal the box size itself.</t>
+  </si>
+  <si>
+    <t>When read from a script, gives the height of the current choice image in this box.</t>
+  </si>
+  <si>
+    <t>scriptable direction</t>
+  </si>
+  <si>
+    <t>spacing</t>
+  </si>
+  <si>
+    <t>Spacing between the items.</t>
+  </si>
+  <si>
+    <t>Font to use for rendering text.</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>Radius of rounded corners for the box in pixels.</t>
+  </si>
+  <si>
+    <t>left width</t>
+  </si>
+  <si>
+    <t>Draw only this many pixels from the side, creating a box with a hole in it, or a card border.</t>
+  </si>
+  <si>
+    <t>right width</t>
+  </si>
+  <si>
+    <t>top width</t>
+  </si>
+  <si>
+    <t>bottom width</t>
+  </si>
+  <si>
+    <t>How to combine the color with the background? Only applies when a mask is used.</t>
+  </si>
+  <si>
+    <t>A default image to use when the card has none.</t>
+  </si>
+  <si>
+    <t>variations</t>
+  </si>
+  <si>
+    <t>list of symbol variations</t>
+  </si>
+  <si>
+    <t>Available variations of the symbol, a variation describes color and border size.</t>
+  </si>
+  <si>
+    <t>min aspect ratio</t>
+  </si>
+  <si>
+    <t>max aspect ratio</t>
+  </si>
+  <si>
+    <t>background color</t>
+  </si>
+  <si>
+    <t>opaque color</t>
+  </si>
+  <si>
+    <t>rgb(255,255,255)</t>
+  </si>
+  <si>
+    <t>Background color for the box, can be used to make it stand out.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Direction in which the text flows. If set to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>"vertical"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it is as if a line break is inserted after each character.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A line height of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> means all lines are in the same position, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is normal behaviour, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> skips a line, etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Multiplier for the line height of 'soft' line breaks. These are breaks caused by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>"&lt;line&gt;\n&lt;/line&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tags.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The height of paragraphs. If specified, each paragraph is given this much space, and aligned inside that space as specified by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>alignment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A paragraph break is any line break that is not soft (i.e. caused by word wrap or a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;soft&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> break).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"choice"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"multiple choice"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"drop down"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>"in place"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"drop down"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> places the box below the field, similar to normal combo boxes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"in place"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> places the box at the mouse coordinates.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Font to use for rendering text (depending on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>render style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Image to show (depending on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>render style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The script will be called with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> set to the value to determine an image for.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Direction the items are laid out in, only when </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>render style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bounds for the aspect ratio, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>width/height</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> symbols can take. This can be used to make non-square symbols.</t>
+    </r>
+  </si>
+  <si>
+    <t>{ w - 105 }</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>Arial</t>
+  </si>
+  <si>
+    <t>{ w - 75 }</t>
+  </si>
+  <si>
+    <t>{ w - 20 }</t>
+  </si>
+  <si>
+    <t>{ fontname(card.type) }</t>
+  </si>
+  <si>
+    <t>top left shrink if-overflow</t>
+  </si>
+  <si>
+    <t>{ card.effect == "Attack" }</t>
+  </si>
+  <si>
+    <t>{ h - 110 }</t>
+  </si>
+  <si>
+    <t>{ h - 60 }</t>
+  </si>
+  <si>
+    <t>{ w - 10 }</t>
+  </si>
+  <si>
+    <t>{ h - 30 }</t>
+  </si>
+  <si>
+    <t>Oswald</t>
+  </si>
+  <si>
+    <t>bold</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>if card.type == "Equipment" then rgb(0,0,100) else if card.type == "Strategic Ploy" then rgb(120,120,120) else rgb(0,0,0)</t>
+  </si>
+  <si>
+    <t>type_caps</t>
+  </si>
+  <si>
+    <t>to_upper(card.type)</t>
+  </si>
+  <si>
+    <t>cost_caps</t>
+  </si>
+  <si>
+    <t>if card.type == "Equipment" then "[{card.cost} EP]" else "{card.cost} AP"</t>
+  </si>
+  <si>
+    <t>{ w - 65 }</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>render_style</t>
+  </si>
+  <si>
+    <t>z_index</t>
+  </si>
+  <si>
+    <t>{ w - 95 }</t>
+  </si>
+  <si>
+    <t>font_name</t>
+  </si>
+  <si>
+    <t>left middle</t>
+  </si>
+  <si>
+    <t>right middle</t>
+  </si>
+  <si>
+    <t>font_size</t>
+  </si>
+  <si>
+    <t>font_weight</t>
+  </si>
+  <si>
+    <t>left middle shrink if-overflow</t>
+  </si>
+  <si>
+    <t>font_scale_down_to</t>
+  </si>
+  <si>
+    <t>symbol_font_name</t>
+  </si>
+  <si>
+    <t>center middle</t>
+  </si>
+  <si>
+    <t>{ h - 160 }</t>
+  </si>
+  <si>
+    <t>symbol_font_size</t>
+  </si>
+  <si>
+    <t>center middle shrink if-overflow</t>
+  </si>
+  <si>
+    <t>font_color</t>
+  </si>
+  <si>
+    <t>action_cost</t>
+  </si>
+  <si>
+    <t>action_rule</t>
+  </si>
+  <si>
+    <t>Action Cost</t>
+  </si>
+  <si>
+    <t>Action Rule</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>wpn_extra</t>
+  </si>
+  <si>
+    <t>Extra Weapon Rules</t>
+  </si>
+  <si>
+    <t>{ card.effect == "Action" }</t>
+  </si>
+  <si>
+    <t>{ wpn_height() }</t>
+  </si>
+  <si>
+    <t>{ if card.effect == "Action" then 25 else 0 }</t>
+  </si>
+  <si>
+    <t>left top shrink if-overflow</t>
+  </si>
+  <si>
+    <t>kt2</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>Can only be equiped by one operative</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>wpn_bg</t>
+  </si>
+  <si>
+    <t>wpn_sr_bg</t>
+  </si>
+  <si>
+    <t>wpn_hdr_a</t>
+  </si>
+  <si>
+    <t>wpn_hdr_d</t>
+  </si>
+  <si>
+    <t>wpn_hdr_bsws</t>
+  </si>
+  <si>
+    <t>"!"</t>
+  </si>
+  <si>
+    <t>wpn_i_bg</t>
+  </si>
+  <si>
+    <t>"A"</t>
+  </si>
+  <si>
+    <t>"BS/WS"</t>
+  </si>
+  <si>
+    <t>"D"</t>
+  </si>
+  <si>
+    <t>{ card.effect == "Attack" and card.wpn_sr != "" }</t>
+  </si>
+  <si>
+    <t>{ card.effect == "Attack" and card.wpn_i != "" }</t>
+  </si>
+  <si>
+    <t>background_color</t>
+  </si>
+  <si>
+    <t>card.name</t>
+  </si>
+  <si>
+    <t>rgb(222,86,39)</t>
+  </si>
+  <si>
+    <t>to_upper(card.name)</t>
+  </si>
+  <si>
+    <t>action_cost_info</t>
+  </si>
+  <si>
+    <t>card.action_cost + " AP"</t>
+  </si>
+  <si>
+    <t>action_header</t>
+  </si>
+  <si>
+    <t>action_header_bg</t>
+  </si>
+  <si>
+    <t>{ w - 85 }</t>
+  </si>
+  <si>
+    <t>wpn_hdr_name</t>
+  </si>
+  <si>
+    <t>wpn_hdr_sr</t>
+  </si>
+  <si>
+    <t>wpn_hdr_i</t>
+  </si>
+  <si>
+    <t>{ w - 115 }</t>
+  </si>
+  <si>
+    <t>wpn_name_info</t>
+  </si>
+  <si>
+    <t>{ w - 80 }</t>
+  </si>
+  <si>
+    <t>{ w - 45 }</t>
+  </si>
+  <si>
+    <t>{ h - 185 }</t>
+  </si>
+  <si>
+    <t>"Special Rules"</t>
+  </si>
+  <si>
+    <t>rgb(200,200,200)</t>
+  </si>
+  <si>
+    <t>{ w - 30 }</t>
+  </si>
+  <si>
+    <t>{ h - 135 }</t>
+  </si>
+  <si>
+    <t>{ h - 85 }</t>
+  </si>
+  <si>
+    <t>"Name"</t>
+  </si>
+  <si>
+    <t>{ if card.effect == "Action" then  h - 195  else 0 }</t>
+  </si>
+  <si>
+    <t>{ if card.effect == "Action" then 70 else if card.effect == "Attack" then h - 255 else h - 100 }</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
+  <si>
+    <t>rgb(0,0,0)</t>
+  </si>
+  <si>
+    <t>{ w }</t>
+  </si>
+  <si>
+    <t>{ h }</t>
+  </si>
+  <si>
+    <t>left_width</t>
+  </si>
+  <si>
+    <t>right_width</t>
+  </si>
+  <si>
+    <t>top_width</t>
+  </si>
+  <si>
+    <t>bottom_width</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,7 +1924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -835,6 +1942,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -847,12 +1957,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -869,6 +1995,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D089C55-FDB1-4DC0-B332-4B6FBF062D1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2438400" y="32356425"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1170,18 +2349,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC25825-1F93-412E-B255-28C8236FC1D6}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="2"/>
     <col min="2" max="2" width="30.85546875" style="2" customWidth="1"/>
     <col min="3" max="16384" width="14.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1195,261 +2374,261 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="13"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="5" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="13"/>
-      <c r="B5" s="5" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="13"/>
-      <c r="B6" s="5" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="5" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="13"/>
-      <c r="B8" s="5" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="13"/>
-      <c r="B9" s="5" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="13"/>
-      <c r="B10" s="5" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="5" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="13"/>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>6</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="11" t="b">
+      <c r="B17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="7" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="11" t="b">
+      <c r="B18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="11" t="b">
+      <c r="B19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="11" t="b">
+      <c r="B20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7" t="b">
         <v>0</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="7">
         <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="7">
         <v>100</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="11" t="b">
+      <c r="B23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="7" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="11" t="b">
+      <c r="B24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1459,25 +2638,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="6"/>
@@ -1485,131 +2664,131 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="7">
         <v>0</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="11" t="s">
+      <c r="B33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="11" t="s">
+      <c r="B34" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="11" t="s">
+      <c r="B35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="11" t="s">
+      <c r="B37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="11" t="s">
+      <c r="B38" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
@@ -1626,438 +2805,438 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="11" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="13"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="7"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="6"/>
       <c r="E43" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="13"/>
-      <c r="B44" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="13"/>
-      <c r="B45" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>80</v>
+      <c r="D45" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="13"/>
-      <c r="B46" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="11" t="b">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="7" t="b">
         <v>0</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="13"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="7"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="6"/>
       <c r="E48" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="13"/>
-      <c r="B49" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="13"/>
-      <c r="B50" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="13"/>
-      <c r="B51" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>80</v>
+      <c r="D51" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="13"/>
-      <c r="B52" s="11" t="s">
-        <v>88</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="13"/>
-      <c r="B53" s="11" t="s">
-        <v>91</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="13"/>
-      <c r="B54" s="11" t="s">
-        <v>94</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="13"/>
-      <c r="B55" s="11"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="3"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1">
-      <c r="A57" s="13"/>
+      <c r="E55" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
       <c r="B57" s="3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1">
-      <c r="A58" s="13"/>
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
       <c r="B58" s="3" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1">
-      <c r="A59" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" s="11" t="s">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="13"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="7"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
       <c r="D61" s="6"/>
       <c r="E61" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="13"/>
-      <c r="B62" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C62" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>6</v>
+      <c r="D62" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="13"/>
-      <c r="B63" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>6</v>
+      <c r="D63" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="13"/>
-      <c r="B64" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="11" t="b">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="13"/>
-      <c r="B65" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C65" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="11" t="s">
-        <v>110</v>
+      <c r="D65" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B66" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="13"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="7"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="8"/>
       <c r="D67" s="6"/>
       <c r="E67" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="13"/>
-      <c r="B68" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="13"/>
-      <c r="B69" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="13"/>
-      <c r="B70" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="11" t="s">
-        <v>80</v>
+      <c r="D70" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="13"/>
-      <c r="B71" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="11" t="b">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="13"/>
-      <c r="B72" s="11" t="s">
-        <v>88</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
+      <c r="B72" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B75" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2120,358 +3299,1196 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5159BD89-EDB9-4B78-8353-21D83A8DC9C0}">
-  <dimension ref="A1:Y13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695DB3CD-DC82-440B-862D-60B1A01F1243}">
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="3.42578125" style="9" customWidth="1"/>
-    <col min="16" max="16" width="3.140625" style="9" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="9" customWidth="1"/>
-    <col min="18" max="18" width="38.28515625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" s="15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>4</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="L3" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="M3" s="15">
+      <c r="D10" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="M4" s="15">
+      <c r="E13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="M6" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="M7" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="M8" s="15">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="A12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>169</v>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="12">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="B55" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D55" s="19"/>
+      <c r="E55" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="12">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D66" s="12">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C70" s="18"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="15"/>
+      <c r="B76" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D76" s="12">
+        <v>1</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="15"/>
+      <c r="B77" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D77" s="12">
+        <v>1</v>
+      </c>
+      <c r="E77" s="17"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="15"/>
+      <c r="B80" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
+      <c r="B81" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D81" s="15">
+        <v>0</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="15"/>
+      <c r="B82" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C82" s="18"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="17"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="15"/>
+      <c r="B83" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C83" s="18"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="17"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="15"/>
+      <c r="B84" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C84" s="18"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="17"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="15"/>
+      <c r="B85" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="V4:V14">
-    <sortCondition ref="V4:V14"/>
-  </sortState>
+  <mergeCells count="51">
+    <mergeCell ref="A14:A44"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:L35"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="A79:A85"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="E81:E84"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A78:E78"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="/doc/type/int" xr:uid="{1A8FBA1A-F624-48B7-980F-F605CF512B03}"/>
+    <hyperlink ref="B11" r:id="rId2" display="/doc/type/image" xr:uid="{E0C659AF-3885-49B5-8597-9804251C9EEE}"/>
+    <hyperlink ref="D11" r:id="rId3" display="/doc/function/set_mask" xr:uid="{F96AD23A-554C-43AC-A309-D1FF11D10B32}"/>
+    <hyperlink ref="C14" r:id="rId4" display="/doc/type/font" xr:uid="{2C69D756-9A40-46B3-98C1-DB7684926431}"/>
+    <hyperlink ref="C15" r:id="rId5" display="/doc/type/symbol_font" xr:uid="{01CA8381-0294-446F-94D5-D283E5FB999C}"/>
+    <hyperlink ref="C16" r:id="rId6" display="/doc/type/boolean" xr:uid="{4E538513-71B6-48EE-BAC1-E464154D6CCA}"/>
+    <hyperlink ref="C18" r:id="rId7" display="/doc/type/boolean" xr:uid="{3B101345-54F7-482A-8E97-0A97EFDEC045}"/>
+    <hyperlink ref="C20" r:id="rId8" display="/doc/type/direction" xr:uid="{EB573A5E-D813-40F6-8872-AF26C8BB38C8}"/>
+    <hyperlink ref="C36" r:id="rId9" display="/doc/type/double" xr:uid="{15D9E487-3247-442E-9EB4-37CE06191CE7}"/>
+    <hyperlink ref="C38" r:id="rId10" display="/doc/type/image" xr:uid="{A9775737-27CF-4FA8-97C8-EB2CE053B55A}"/>
+    <hyperlink ref="C42" r:id="rId11" display="/doc/type/double" xr:uid="{C2F0E304-F3F8-4119-85E7-4A572C14D235}"/>
+    <hyperlink ref="C43" r:id="rId12" display="/doc/type/double" xr:uid="{BA1210F1-28A7-43BA-85E5-30F3DCE2DF5B}"/>
+    <hyperlink ref="C44" r:id="rId13" display="/doc/type/int" xr:uid="{27D54356-0B5C-46A3-A521-8135E160C3B8}"/>
+    <hyperlink ref="C49" r:id="rId14" display="/doc/type/choice_render_style" xr:uid="{64FC87AB-CC5F-4E1C-8561-F3F69F63D4CD}"/>
+    <hyperlink ref="C50" r:id="rId15" display="/doc/type/combine" xr:uid="{DC636A0F-CF5B-4DFB-BD66-14BEF1EBEEB6}"/>
+    <hyperlink ref="E50" r:id="rId16" display="/doc/function/set_combine" xr:uid="{97FB600D-7A67-4B92-9F04-AED5063A6375}"/>
+    <hyperlink ref="C51" r:id="rId17" display="/doc/type/alignment" xr:uid="{4B51EBB3-64A8-4359-95F8-0812BCCA6128}"/>
+    <hyperlink ref="C52" r:id="rId18" display="/doc/type/font" xr:uid="{E2AFDDFA-E565-481E-8640-008AF00496A9}"/>
+    <hyperlink ref="C53" r:id="rId19" display="/doc/type/image" xr:uid="{D38A62D5-ACA9-41E5-A3A2-8EA3DFE60B89}"/>
+    <hyperlink ref="E56" r:id="rId20" display="/doc/type/choice" xr:uid="{830459BE-AFB9-4B41-AD76-A3B9B4F0BB24}"/>
+    <hyperlink ref="C57" r:id="rId21" display="/doc/type/double" xr:uid="{9B056AA3-4F82-4378-95EF-5A8714021373}"/>
+    <hyperlink ref="C59" r:id="rId22" display="/doc/type/double" xr:uid="{7B013210-F01E-424F-A2ED-757C4A934C67}"/>
+    <hyperlink ref="C64" r:id="rId23" display="/doc/type/font" xr:uid="{09AA83C1-2E52-4E5A-9A84-7A6F4440D5CB}"/>
+    <hyperlink ref="C66" r:id="rId24" display="/doc/type/double" xr:uid="{AD28369F-2534-425E-A050-8CF37E96111F}"/>
+    <hyperlink ref="C67" r:id="rId25" display="/doc/type/double" xr:uid="{7E6ED6FB-2E90-4E85-8E7C-3F94FEDCBC44}"/>
+    <hyperlink ref="C71" r:id="rId26" display="/doc/type/combine" xr:uid="{E87025CD-6888-468D-904E-C50472785EB0}"/>
+    <hyperlink ref="C73" r:id="rId27" display="/doc/type/image" xr:uid="{501E97C1-EB81-4DCF-8EFA-53076DA46726}"/>
+    <hyperlink ref="C76" r:id="rId28" display="/doc/type/double" xr:uid="{E91573C4-07D5-4427-93FF-BC8C10E67A2D}"/>
+    <hyperlink ref="C77" r:id="rId29" display="/doc/type/double" xr:uid="{156D4DB9-9DBE-4F69-8FF8-96C59ABD70AD}"/>
+    <hyperlink ref="C79" r:id="rId30" display="/doc/type/font" xr:uid="{977C92F8-EDE7-4C68-86F5-67BC73961E5B}"/>
+    <hyperlink ref="C81" r:id="rId31" display="/doc/type/double" xr:uid="{C343B7FF-6636-47B1-8D09-BA92D2A627E6}"/>
+    <hyperlink ref="C85" r:id="rId32" display="/doc/type/color" xr:uid="{6CE8AF12-B3A3-4122-A9FA-84A802079483}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;8&amp;K0000FFAviva: Internal</oddFooter>
   </headerFooter>
+  <drawing r:id="rId33"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3A9D6F-35A4-4B3A-A101-0038A8519C06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4930578B-17D8-46E6-960F-882D4F61DADE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2482,13 +4499,414 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5D47B2-61E9-470D-A101-5BF6405AD23A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5159BD89-EDB9-4B78-8353-21D83A8DC9C0}">
+  <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="20.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="3.42578125" style="10" customWidth="1"/>
+    <col min="16" max="16" width="3.140625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="38.28515625" style="10" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="V4:V15">
+    <sortCondition ref="V4:V15"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
@@ -2498,13 +4916,1522 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3A9D6F-35A4-4B3A-A101-0038A8519C06}">
+  <dimension ref="A1:Q15"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4">
+        <v>65</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" t="s">
+        <v>304</v>
+      </c>
+      <c r="L5">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>305</v>
+      </c>
+      <c r="K6" t="s">
+        <v>301</v>
+      </c>
+      <c r="L6">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>333</v>
+      </c>
+      <c r="F8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>332</v>
+      </c>
+      <c r="K8" t="s">
+        <v>301</v>
+      </c>
+      <c r="L8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>333</v>
+      </c>
+      <c r="F9" t="s">
+        <v>345</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>332</v>
+      </c>
+      <c r="K9" t="s">
+        <v>301</v>
+      </c>
+      <c r="L9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" t="s">
+        <v>345</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>329</v>
+      </c>
+      <c r="K10" t="s">
+        <v>301</v>
+      </c>
+      <c r="L10">
+        <v>12</v>
+      </c>
+      <c r="P10" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" t="s">
+        <v>345</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>329</v>
+      </c>
+      <c r="K11" t="s">
+        <v>301</v>
+      </c>
+      <c r="L11">
+        <v>12</v>
+      </c>
+      <c r="P11" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" t="s">
+        <v>310</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>329</v>
+      </c>
+      <c r="K12" t="s">
+        <v>311</v>
+      </c>
+      <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>312</v>
+      </c>
+      <c r="P12" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>140</v>
+      </c>
+      <c r="F13" t="s">
+        <v>346</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14">
+        <v>165</v>
+      </c>
+      <c r="F14" t="s">
+        <v>394</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>347</v>
+      </c>
+      <c r="K14" t="s">
+        <v>301</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="P14" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;8&amp;K0000FFAviva: Internal</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5D47B2-61E9-470D-A101-5BF6405AD23A}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>382</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;8&amp;K0000FFAviva: Internal</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB00221E-B5AF-470D-804A-366DA6F86337}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>324</v>
+      </c>
+      <c r="L1" t="s">
+        <v>327</v>
+      </c>
+      <c r="M1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N1" t="s">
+        <v>336</v>
+      </c>
+      <c r="O1" t="s">
+        <v>330</v>
+      </c>
+      <c r="P1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>400</v>
+      </c>
+      <c r="R1" t="s">
+        <v>401</v>
+      </c>
+      <c r="S1" t="s">
+        <v>402</v>
+      </c>
+      <c r="T1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K3" t="s">
+        <v>311</v>
+      </c>
+      <c r="L3">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>312</v>
+      </c>
+      <c r="N3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4">
+        <v>65</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>326</v>
+      </c>
+      <c r="K4" t="s">
+        <v>304</v>
+      </c>
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>312</v>
+      </c>
+      <c r="N4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5">
+        <v>140</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E6">
+        <v>140</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>329</v>
+      </c>
+      <c r="K6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L6">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>140</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L7">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" t="s">
+        <v>387</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>325</v>
+      </c>
+      <c r="K9" t="s">
+        <v>311</v>
+      </c>
+      <c r="L9">
+        <v>12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>329</v>
+      </c>
+      <c r="K10" t="s">
+        <v>301</v>
+      </c>
+      <c r="L10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>332</v>
+      </c>
+      <c r="K11" t="s">
+        <v>311</v>
+      </c>
+      <c r="L11">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>387</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K12" t="s">
+        <v>311</v>
+      </c>
+      <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D13">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>332</v>
+      </c>
+      <c r="K13" t="s">
+        <v>311</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" t="s">
+        <v>391</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>390</v>
+      </c>
+      <c r="E15" t="s">
+        <v>391</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>325</v>
+      </c>
+      <c r="K15" t="s">
+        <v>311</v>
+      </c>
+      <c r="L15">
+        <v>12</v>
+      </c>
+      <c r="M15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" t="s">
+        <v>392</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>390</v>
+      </c>
+      <c r="E17" t="s">
+        <v>392</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K17" t="s">
+        <v>311</v>
+      </c>
+      <c r="L17">
+        <v>12</v>
+      </c>
+      <c r="M17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>398</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>399</v>
+      </c>
+      <c r="G18">
+        <v>99</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>

--- a/mse-set_creation/kt2cards.xlsx
+++ b/mse-set_creation/kt2cards.xlsx
@@ -8,18 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\projects\M15-Magic-Pack-main\data\mse-set_creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBFA58A-00B9-4E65-964C-0DFFA55AF5A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BFDB44-C92B-4ED2-AF66-75343FEAA55F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{99BC69B6-EC6D-4401-A482-489E2ED58CBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{99BC69B6-EC6D-4401-A482-489E2ED58CBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Ref" sheetId="1" r:id="rId1"/>
     <sheet name="Style Ref" sheetId="6" r:id="rId2"/>
-    <sheet name="struct" sheetId="8" r:id="rId3"/>
-    <sheet name="card_fields" sheetId="2" r:id="rId4"/>
-    <sheet name="card_style" sheetId="3" r:id="rId5"/>
-    <sheet name="extra_card_fields" sheetId="4" r:id="rId6"/>
+    <sheet name="card_fields" sheetId="2" r:id="rId3"/>
+    <sheet name="struct" sheetId="8" r:id="rId4"/>
+    <sheet name="extra_card_fields" sheetId="4" r:id="rId5"/>
+    <sheet name="card_style" sheetId="3" r:id="rId6"/>
     <sheet name="extra_card_style" sheetId="5" r:id="rId7"/>
+    <sheet name="card_style_2" sheetId="9" r:id="rId8"/>
+    <sheet name="extra_card_fields_2" sheetId="10" r:id="rId9"/>
+    <sheet name="extra_card_style_2" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="431">
   <si>
     <t>Property</t>
   </si>
@@ -1845,12 +1848,93 @@
   <si>
     <t>bottom_width</t>
   </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>card_style</t>
+  </si>
+  <si>
+    <t>extra_card_fields</t>
+  </si>
+  <si>
+    <t>style_name</t>
+  </si>
+  <si>
+    <t>extra_card_style</t>
+  </si>
+  <si>
+    <t>card_style_2</t>
+  </si>
+  <si>
+    <t>extra_card_fields_2</t>
+  </si>
+  <si>
+    <t>extra_card_style_2</t>
+  </si>
+  <si>
+    <t>orig-style</t>
+  </si>
+  <si>
+    <t>Black Ops One</t>
+  </si>
+  <si>
+    <t>{ w - 60 }</t>
+  </si>
+  <si>
+    <t>padding_left</t>
+  </si>
+  <si>
+    <t>padding_right</t>
+  </si>
+  <si>
+    <t>if card.type == "Equipment" then "[{card.cost} EP]" else "{card.cost} CP"</t>
+  </si>
+  <si>
+    <t>padding_top</t>
+  </si>
+  <si>
+    <t>padding_bottom</t>
+  </si>
+  <si>
+    <t>{ h - 55 }</t>
+  </si>
+  <si>
+    <t>{ h - 105 }</t>
+  </si>
+  <si>
+    <t>{ h - 80 }</t>
+  </si>
+  <si>
+    <t>{ h - 130 }</t>
+  </si>
+  <si>
+    <t>{ h - 180 }</t>
+  </si>
+  <si>
+    <t>{ h - 155 }</t>
+  </si>
+  <si>
+    <t>{ if card.effect == "Action" then 80 else if card.effect == "Attack" then h - 240 else h - 90 }</t>
+  </si>
+  <si>
+    <t>choice_images</t>
+  </si>
+  <si>
+    <t>Attack:   /kt2-common.mse-include/resource/ranged.png,Action:   /kt2-common.mse-include/resource/scout.png,Effect:   /kt2-common.mse-include/resource/effect.png,Ability:   /kt2-common.mse-include/resource/ability.png</t>
+  </si>
+  <si>
+    <t>{ h - 25 }</t>
+  </si>
+  <si>
+    <t>{ w - 25 }</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1902,6 +1986,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1924,7 +2016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1961,16 +2053,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1979,6 +2068,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2375,7 +2471,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2389,13 +2485,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="4"/>
       <c r="C3" s="9"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2403,7 +2499,7 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -2411,7 +2507,7 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -2419,7 +2515,7 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
@@ -2427,7 +2523,7 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
@@ -2435,7 +2531,7 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
@@ -2443,7 +2539,7 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
@@ -2451,7 +2547,7 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
@@ -2459,7 +2555,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2467,7 +2563,7 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
       <c r="D13" s="3"/>
@@ -2806,7 +2902,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -2821,7 +2917,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="6"/>
@@ -2830,7 +2926,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="7" t="s">
         <v>58</v>
       </c>
@@ -2843,7 +2939,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="7" t="s">
         <v>60</v>
       </c>
@@ -2858,7 +2954,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="7" t="s">
         <v>63</v>
       </c>
@@ -2873,7 +2969,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -2888,7 +2984,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
       <c r="D48" s="6"/>
@@ -2897,7 +2993,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="7" t="s">
         <v>58</v>
       </c>
@@ -2910,7 +3006,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="7" t="s">
         <v>66</v>
       </c>
@@ -2923,7 +3019,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="7" t="s">
         <v>60</v>
       </c>
@@ -2938,7 +3034,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="7" t="s">
         <v>69</v>
       </c>
@@ -2951,7 +3047,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="7" t="s">
         <v>72</v>
       </c>
@@ -2964,7 +3060,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
+      <c r="A54" s="16"/>
       <c r="B54" s="7" t="s">
         <v>75</v>
       </c>
@@ -2977,7 +3073,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
+      <c r="A55" s="16"/>
       <c r="B55" s="7"/>
       <c r="C55" s="3"/>
       <c r="D55" s="6"/>
@@ -2986,7 +3082,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -2997,7 +3093,7 @@
       <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="3" t="s">
         <v>80</v>
       </c>
@@ -3006,7 +3102,7 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="3" t="s">
         <v>81</v>
       </c>
@@ -3026,7 +3122,7 @@
       <c r="E59" s="9"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="16" t="s">
         <v>84</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -3041,7 +3137,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
+      <c r="A61" s="16"/>
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="6"/>
@@ -3050,7 +3146,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
+      <c r="A62" s="16"/>
       <c r="B62" s="7" t="s">
         <v>85</v>
       </c>
@@ -3065,7 +3161,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="7" t="s">
         <v>66</v>
       </c>
@@ -3080,7 +3176,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
+      <c r="A64" s="16"/>
       <c r="B64" s="7" t="s">
         <v>88</v>
       </c>
@@ -3095,7 +3191,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
+      <c r="A65" s="16"/>
       <c r="B65" s="7" t="s">
         <v>90</v>
       </c>
@@ -3110,7 +3206,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="16" t="s">
         <v>93</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -3125,7 +3221,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
+      <c r="A67" s="16"/>
       <c r="B67" s="7"/>
       <c r="C67" s="8"/>
       <c r="D67" s="6"/>
@@ -3134,7 +3230,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
+      <c r="A68" s="16"/>
       <c r="B68" s="7" t="s">
         <v>58</v>
       </c>
@@ -3147,7 +3243,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
+      <c r="A69" s="16"/>
       <c r="B69" s="7" t="s">
         <v>66</v>
       </c>
@@ -3160,7 +3256,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
+      <c r="A70" s="16"/>
       <c r="B70" s="7" t="s">
         <v>60</v>
       </c>
@@ -3175,7 +3271,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="7" t="s">
         <v>95</v>
       </c>
@@ -3190,7 +3286,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
+      <c r="A72" s="16"/>
       <c r="B72" s="7" t="s">
         <v>69</v>
       </c>
@@ -3298,6 +3394,613 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879F0E03-9DB1-40FD-ACBB-27B52811C550}">
+  <dimension ref="A1:T18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>324</v>
+      </c>
+      <c r="L1" t="s">
+        <v>327</v>
+      </c>
+      <c r="M1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N1" t="s">
+        <v>336</v>
+      </c>
+      <c r="O1" t="s">
+        <v>330</v>
+      </c>
+      <c r="P1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>400</v>
+      </c>
+      <c r="R1" t="s">
+        <v>401</v>
+      </c>
+      <c r="S1" t="s">
+        <v>402</v>
+      </c>
+      <c r="T1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K3" t="s">
+        <v>311</v>
+      </c>
+      <c r="L3">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>312</v>
+      </c>
+      <c r="N3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4">
+        <v>65</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>326</v>
+      </c>
+      <c r="K4" t="s">
+        <v>304</v>
+      </c>
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>312</v>
+      </c>
+      <c r="N4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5">
+        <v>140</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E6">
+        <v>140</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>329</v>
+      </c>
+      <c r="K6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L6">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>140</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L7">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" t="s">
+        <v>387</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>325</v>
+      </c>
+      <c r="K9" t="s">
+        <v>311</v>
+      </c>
+      <c r="L9">
+        <v>12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>329</v>
+      </c>
+      <c r="K10" t="s">
+        <v>301</v>
+      </c>
+      <c r="L10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>332</v>
+      </c>
+      <c r="K11" t="s">
+        <v>311</v>
+      </c>
+      <c r="L11">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>387</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K12" t="s">
+        <v>311</v>
+      </c>
+      <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D13">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>332</v>
+      </c>
+      <c r="K13" t="s">
+        <v>311</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" t="s">
+        <v>391</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>390</v>
+      </c>
+      <c r="E15" t="s">
+        <v>391</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>325</v>
+      </c>
+      <c r="K15" t="s">
+        <v>311</v>
+      </c>
+      <c r="L15">
+        <v>12</v>
+      </c>
+      <c r="M15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" t="s">
+        <v>392</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>390</v>
+      </c>
+      <c r="E17" t="s">
+        <v>392</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K17" t="s">
+        <v>311</v>
+      </c>
+      <c r="L17">
+        <v>12</v>
+      </c>
+      <c r="M17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>398</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>399</v>
+      </c>
+      <c r="G18">
+        <v>99</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;8&amp;K0000FFAviva: Internal</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695DB3CD-DC82-440B-862D-60B1A01F1243}">
   <dimension ref="A1:L85"/>
@@ -3487,7 +4190,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -3504,7 +4207,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="12" t="s">
         <v>197</v>
       </c>
@@ -3517,14 +4220,14 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="15" t="b">
+      <c r="D16" s="16" t="b">
         <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -3532,16 +4235,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="15"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="3" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="12" t="s">
         <v>202</v>
       </c>
@@ -3556,7 +4259,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="12" t="s">
         <v>47</v>
       </c>
@@ -3571,7 +4274,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="12" t="s">
         <v>207</v>
       </c>
@@ -3586,56 +4289,56 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="16">
         <v>0</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="18" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="18" t="s">
         <v>215</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -3643,43 +4346,43 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="16">
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -3687,16 +4390,16 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="15"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="3" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="12" t="s">
         <v>223</v>
       </c>
@@ -3711,7 +4414,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="12" t="s">
         <v>225</v>
       </c>
@@ -3726,68 +4429,68 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15" t="s">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="19" t="s">
         <v>233</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -3795,23 +4498,23 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="20"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="19" t="s">
         <v>193</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -3819,32 +4522,32 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="20"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="3" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="20"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="19"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="20"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="19"/>
       <c r="E41" s="3" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="12" t="s">
         <v>237</v>
       </c>
@@ -3859,7 +4562,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="12" t="s">
         <v>240</v>
       </c>
@@ -3874,7 +4577,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="12" t="s">
         <v>242</v>
       </c>
@@ -3889,23 +4592,23 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="16" t="s">
         <v>245</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -3916,9 +4619,9 @@
       <c r="A47" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
       <c r="E47" s="12" t="s">
         <v>292</v>
       </c>
@@ -3927,9 +4630,9 @@
       <c r="A48" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
       <c r="E48" s="12" t="s">
         <v>293</v>
       </c>
@@ -3994,57 +4697,57 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D53" s="19"/>
+      <c r="D53" s="22"/>
       <c r="E53" s="3" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="22"/>
       <c r="E54" s="3" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="D55" s="19"/>
+      <c r="D55" s="22"/>
       <c r="E55" s="3" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="19"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="22"/>
       <c r="E56" s="8" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="19" t="s">
         <v>238</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -4053,9 +4756,9 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="20"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="19"/>
       <c r="E58" s="3" t="s">
         <v>260</v>
       </c>
@@ -4076,7 +4779,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="12" t="s">
@@ -4093,7 +4796,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
+      <c r="A61" s="16"/>
       <c r="B61" s="12" t="s">
         <v>263</v>
       </c>
@@ -4108,19 +4811,19 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
+      <c r="A64" s="16"/>
       <c r="B64" s="12" t="s">
         <v>195</v>
       </c>
@@ -4133,14 +4836,14 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="16" t="s">
         <v>93</v>
       </c>
       <c r="B66" s="12" t="s">
@@ -4157,49 +4860,49 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
+      <c r="A67" s="16"/>
       <c r="B67" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="18" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
+      <c r="A68" s="16"/>
       <c r="B68" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
+      <c r="A69" s="16"/>
       <c r="B69" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
+      <c r="A70" s="16"/>
       <c r="B70" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="12" t="s">
         <v>250</v>
       </c>
@@ -4214,11 +4917,11 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
@@ -4238,14 +4941,14 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="16" t="s">
         <v>100</v>
       </c>
       <c r="B75" s="12" t="s">
@@ -4260,7 +4963,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
+      <c r="A76" s="16"/>
       <c r="B76" s="12" t="s">
         <v>278</v>
       </c>
@@ -4270,12 +4973,12 @@
       <c r="D76" s="12">
         <v>1</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E76" s="18" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
+      <c r="A77" s="16"/>
       <c r="B77" s="12" t="s">
         <v>279</v>
       </c>
@@ -4285,17 +4988,17 @@
       <c r="D77" s="12">
         <v>1</v>
       </c>
-      <c r="E77" s="17"/>
+      <c r="E77" s="18"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B79" s="12" t="s">
@@ -4312,7 +5015,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
+      <c r="A80" s="16"/>
       <c r="B80" s="12" t="s">
         <v>47</v>
       </c>
@@ -4327,49 +5030,49 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
+      <c r="A81" s="16"/>
       <c r="B81" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D81" s="16">
         <v>0</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E81" s="18" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
+      <c r="A82" s="16"/>
       <c r="B82" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C82" s="18"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="18"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C83" s="18"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="18"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
+      <c r="A84" s="16"/>
       <c r="B84" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C84" s="18"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="18"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
+      <c r="A85" s="16"/>
       <c r="B85" s="12" t="s">
         <v>280</v>
       </c>
@@ -4385,40 +5088,7 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A14:A44"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:L35"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="A78:E78"/>
     <mergeCell ref="A79:A85"/>
     <mergeCell ref="C81:C84"/>
     <mergeCell ref="D81:D84"/>
@@ -4435,7 +5105,40 @@
     <mergeCell ref="A74:E74"/>
     <mergeCell ref="A75:A77"/>
     <mergeCell ref="E76:E77"/>
-    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E33:L35"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A14:A44"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="/doc/type/int" xr:uid="{1A8FBA1A-F624-48B7-980F-F605CF512B03}"/>
@@ -4481,29 +5184,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4930578B-17D8-46E6-960F-882D4F61DADE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;8&amp;K0000FFAviva: Internal</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5159BD89-EDB9-4B78-8353-21D83A8DC9C0}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4915,503 +5600,442 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3A9D6F-35A4-4B3A-A101-0038A8519C06}">
-  <dimension ref="A1:Q15"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4930578B-17D8-46E6-960F-882D4F61DADE}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;8&amp;K0000FFAviva: Internal</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5D47B2-61E9-470D-A101-5BF6405AD23A}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="110" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4">
-        <v>65</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E5">
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <v>25</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>329</v>
-      </c>
-      <c r="K5" t="s">
-        <v>304</v>
-      </c>
-      <c r="L5">
-        <v>18</v>
-      </c>
-      <c r="M5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>303</v>
-      </c>
-      <c r="E6">
-        <v>70</v>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>395</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>305</v>
-      </c>
-      <c r="K6" t="s">
-        <v>301</v>
-      </c>
-      <c r="L6">
-        <v>12</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="P6" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>156</v>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>333</v>
+        <v>375</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="F7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>157</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C8" t="s">
-        <v>385</v>
-      </c>
-      <c r="D8">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>333</v>
+        <v>359</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>345</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>332</v>
-      </c>
-      <c r="K8" t="s">
-        <v>301</v>
-      </c>
-      <c r="L8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>158</v>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" t="s">
-        <v>386</v>
-      </c>
-      <c r="D9">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>333</v>
+        <v>360</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>345</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-      <c r="J9" t="s">
-        <v>332</v>
-      </c>
-      <c r="K9" t="s">
-        <v>301</v>
-      </c>
-      <c r="L9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>164</v>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>303</v>
-      </c>
-      <c r="E10" t="s">
-        <v>307</v>
+        <v>365</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="F10" t="s">
-        <v>345</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>329</v>
-      </c>
-      <c r="K10" t="s">
-        <v>301</v>
-      </c>
-      <c r="L10">
-        <v>12</v>
-      </c>
-      <c r="P10" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>165</v>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>303</v>
-      </c>
-      <c r="E11" t="s">
-        <v>308</v>
+        <v>380</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="F11" t="s">
-        <v>345</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>329</v>
-      </c>
-      <c r="K11" t="s">
-        <v>301</v>
-      </c>
-      <c r="L11">
-        <v>12</v>
-      </c>
-      <c r="P11" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>309</v>
-      </c>
-      <c r="E12" t="s">
-        <v>310</v>
-      </c>
-      <c r="F12">
-        <v>25</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="J12" t="s">
-        <v>329</v>
-      </c>
-      <c r="K12" t="s">
-        <v>311</v>
-      </c>
-      <c r="L12">
-        <v>12</v>
-      </c>
-      <c r="M12" t="s">
-        <v>312</v>
-      </c>
-      <c r="P12" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>337</v>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>344</v>
-      </c>
-      <c r="C13" t="s">
-        <v>302</v>
-      </c>
-      <c r="D13">
-        <v>65</v>
-      </c>
-      <c r="E13">
-        <v>140</v>
+        <v>363</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>346</v>
-      </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>338</v>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>344</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>303</v>
-      </c>
-      <c r="E14">
-        <v>165</v>
+        <v>362</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="F14" t="s">
-        <v>394</v>
-      </c>
-      <c r="G14">
-        <v>10</v>
-      </c>
-      <c r="J14" t="s">
-        <v>347</v>
-      </c>
-      <c r="K14" t="s">
-        <v>301</v>
-      </c>
-      <c r="L14">
-        <v>12</v>
-      </c>
-      <c r="N14">
-        <v>4</v>
-      </c>
-      <c r="P14" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>382</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -5424,400 +6048,553 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5D47B2-61E9-470D-A101-5BF6405AD23A}">
-  <dimension ref="A1:N18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3A9D6F-35A4-4B3A-A101-0038A8519C06}">
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>415</v>
+      </c>
+      <c r="R1" t="s">
+        <v>416</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" t="s">
-        <v>155</v>
-      </c>
-      <c r="N1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>377</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>329</v>
+      </c>
+      <c r="K4" t="s">
+        <v>311</v>
+      </c>
+      <c r="L4">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" t="s">
+        <v>311</v>
+      </c>
+      <c r="L5">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
+        <v>312</v>
+      </c>
+      <c r="O5" t="s">
+        <v>348</v>
+      </c>
+      <c r="P5">
+        <v>12</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L7">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P7">
+        <v>12</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
+        <v>306</v>
+      </c>
+      <c r="C8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>425</v>
+      </c>
+      <c r="F8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>332</v>
+      </c>
+      <c r="K8" t="s">
+        <v>301</v>
+      </c>
+      <c r="L8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
+        <v>306</v>
+      </c>
+      <c r="C9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>425</v>
+      </c>
+      <c r="F9" t="s">
+        <v>345</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>332</v>
+      </c>
+      <c r="K9" t="s">
+        <v>301</v>
+      </c>
+      <c r="L9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>365</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
+        <v>306</v>
+      </c>
+      <c r="C10" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>425</v>
+      </c>
+      <c r="F10" t="s">
+        <v>345</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>332</v>
+      </c>
+      <c r="K10" t="s">
+        <v>301</v>
+      </c>
+      <c r="L10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>380</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N11" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
+        <v>306</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F11" t="s">
+        <v>345</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>329</v>
+      </c>
+      <c r="K11" t="s">
+        <v>301</v>
+      </c>
+      <c r="L11">
+        <v>12</v>
+      </c>
+      <c r="O11" t="s">
+        <v>348</v>
+      </c>
+      <c r="P11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>361</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N12" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
+        <v>306</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" t="s">
+        <v>420</v>
+      </c>
+      <c r="F12" t="s">
+        <v>345</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>329</v>
+      </c>
+      <c r="K12" t="s">
+        <v>301</v>
+      </c>
+      <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="O12" t="s">
+        <v>348</v>
+      </c>
+      <c r="P12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>337</v>
       </c>
       <c r="B13" t="s">
-        <v>363</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N13" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
+        <v>344</v>
+      </c>
+      <c r="C13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>140</v>
+      </c>
+      <c r="F13" t="s">
+        <v>346</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>338</v>
       </c>
       <c r="B14" t="s">
-        <v>362</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N14" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>381</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N15" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>382</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N16" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>384</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N17" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>396</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N18" t="s">
-        <v>397</v>
+        <v>344</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>309</v>
+      </c>
+      <c r="E14">
+        <v>165</v>
+      </c>
+      <c r="F14" t="s">
+        <v>394</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>347</v>
+      </c>
+      <c r="K14" t="s">
+        <v>301</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
+        <v>348</v>
+      </c>
+      <c r="P14">
+        <v>12</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5831,10 +6608,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB00221E-B5AF-470D-804A-366DA6F86337}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5843,7 +6620,7 @@
     <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -5890,50 +6667,654 @@
         <v>330</v>
       </c>
       <c r="P1" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="Q1" t="s">
+        <v>416</v>
+      </c>
+      <c r="R1" t="s">
         <v>400</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>401</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>402</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>313</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>329</v>
+      </c>
+      <c r="K4" t="s">
+        <v>413</v>
+      </c>
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>312</v>
+      </c>
+      <c r="N4" t="s">
+        <v>320</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>326</v>
+      </c>
+      <c r="K5" t="s">
+        <v>413</v>
+      </c>
+      <c r="L5">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
+        <v>312</v>
+      </c>
+      <c r="N5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6">
+        <v>140</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E7">
+        <v>140</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L7">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <v>140</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>326</v>
+      </c>
+      <c r="K8" t="s">
+        <v>311</v>
+      </c>
+      <c r="L8">
+        <v>14</v>
+      </c>
+      <c r="N8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" t="s">
+        <v>424</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>380</v>
+      </c>
+      <c r="B10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E10" t="s">
+        <v>424</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>325</v>
+      </c>
+      <c r="K10" t="s">
+        <v>311</v>
+      </c>
+      <c r="L10">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>383</v>
+      </c>
+      <c r="E11" t="s">
+        <v>425</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>329</v>
+      </c>
+      <c r="K11" t="s">
+        <v>301</v>
+      </c>
+      <c r="L11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>361</v>
+      </c>
+      <c r="B12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>424</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>332</v>
+      </c>
+      <c r="K12" t="s">
+        <v>311</v>
+      </c>
+      <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D13">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>424</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>335</v>
+      </c>
+      <c r="K13" t="s">
+        <v>311</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14" t="s">
+        <v>386</v>
+      </c>
+      <c r="D14">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>424</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>332</v>
+      </c>
+      <c r="K14" t="s">
+        <v>311</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>303</v>
+      </c>
+      <c r="E15" t="s">
+        <v>423</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>381</v>
+      </c>
+      <c r="B16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>390</v>
+      </c>
+      <c r="E16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>325</v>
+      </c>
+      <c r="K16" t="s">
+        <v>311</v>
+      </c>
+      <c r="L16">
+        <v>12</v>
+      </c>
+      <c r="M16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>303</v>
+      </c>
+      <c r="E17" t="s">
+        <v>422</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>382</v>
+      </c>
+      <c r="B18" t="s">
+        <v>370</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>390</v>
+      </c>
+      <c r="E18" t="s">
+        <v>422</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>325</v>
+      </c>
+      <c r="K18" t="s">
+        <v>311</v>
+      </c>
+      <c r="L18">
+        <v>12</v>
+      </c>
+      <c r="M18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;8&amp;K0000FFAviva: Internal</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C74C4CF-C75F-4CDD-971D-5F99B1CACAE5}">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="C2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>319</v>
+      <c r="I2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -5942,27 +7323,15 @@
         <v>25</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>325</v>
-      </c>
-      <c r="K3" t="s">
-        <v>311</v>
-      </c>
-      <c r="L3">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
-        <v>312</v>
-      </c>
-      <c r="N3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>317</v>
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="C4" t="s">
         <v>302</v>
@@ -5977,178 +7346,181 @@
         <v>25</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>326</v>
-      </c>
-      <c r="K4" t="s">
-        <v>304</v>
-      </c>
-      <c r="L4">
-        <v>14</v>
-      </c>
-      <c r="M4" t="s">
-        <v>312</v>
-      </c>
-      <c r="N4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>378</v>
-      </c>
-      <c r="B5" t="s">
-        <v>344</v>
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E5">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>25</v>
       </c>
       <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>377</v>
-      </c>
-      <c r="B6" t="s">
-        <v>344</v>
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" t="s">
+        <v>304</v>
+      </c>
+      <c r="L5">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>379</v>
+        <v>303</v>
       </c>
       <c r="E6">
-        <v>140</v>
-      </c>
-      <c r="F6">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>305</v>
+      </c>
+      <c r="K6" t="s">
+        <v>301</v>
+      </c>
+      <c r="L6">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>348</v>
+      </c>
+      <c r="P6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7">
         <v>25</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L6">
-        <v>14</v>
-      </c>
-      <c r="N6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B7" t="s">
-        <v>344</v>
-      </c>
-      <c r="C7" t="s">
-        <v>302</v>
-      </c>
-      <c r="D7">
-        <v>65</v>
-      </c>
-      <c r="E7">
-        <v>140</v>
-      </c>
-      <c r="F7">
-        <v>25</v>
+      <c r="E7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F7" t="s">
+        <v>345</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="K7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="L7">
-        <v>14</v>
-      </c>
-      <c r="N7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>359</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="B8" t="s">
         <v>306</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>333</v>
+      </c>
+      <c r="F8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G8">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>303</v>
-      </c>
-      <c r="E8" t="s">
-        <v>387</v>
-      </c>
-      <c r="F8">
-        <v>25</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>380</v>
+      <c r="J8" t="s">
+        <v>332</v>
+      </c>
+      <c r="K8" t="s">
+        <v>301</v>
+      </c>
+      <c r="L8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="B9" t="s">
         <v>306</v>
       </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>383</v>
+      <c r="C9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>387</v>
-      </c>
-      <c r="F9">
-        <v>25</v>
+        <v>333</v>
+      </c>
+      <c r="F9" t="s">
+        <v>345</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K9" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="L9">
         <v>12</v>
       </c>
-      <c r="M9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>384</v>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="B10" t="s">
         <v>306</v>
@@ -6157,13 +7529,13 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>383</v>
+        <v>303</v>
       </c>
       <c r="E10" t="s">
-        <v>333</v>
-      </c>
-      <c r="F10">
-        <v>25</v>
+        <v>307</v>
+      </c>
+      <c r="F10" t="s">
+        <v>345</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -6177,66 +7549,72 @@
       <c r="L10">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>361</v>
+      <c r="O10" t="s">
+        <v>348</v>
+      </c>
+      <c r="P10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="B11" t="s">
         <v>306</v>
       </c>
-      <c r="C11" t="s">
-        <v>299</v>
-      </c>
-      <c r="D11">
-        <v>25</v>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>303</v>
       </c>
       <c r="E11" t="s">
-        <v>387</v>
-      </c>
-      <c r="F11">
-        <v>25</v>
+        <v>308</v>
+      </c>
+      <c r="F11" t="s">
+        <v>345</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K11" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="L11">
         <v>12</v>
       </c>
-      <c r="M11" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>363</v>
-      </c>
-      <c r="B12" t="s">
-        <v>306</v>
-      </c>
-      <c r="C12" t="s">
-        <v>385</v>
-      </c>
-      <c r="D12">
-        <v>35</v>
+      <c r="O11" t="s">
+        <v>348</v>
+      </c>
+      <c r="P11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>309</v>
       </c>
       <c r="E12" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="F12">
         <v>25</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="K12" t="s">
         <v>311</v>
@@ -6247,48 +7625,45 @@
       <c r="M12" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>362</v>
+      <c r="O12" t="s">
+        <v>348</v>
+      </c>
+      <c r="P12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>337</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="C13" t="s">
-        <v>386</v>
+        <v>302</v>
       </c>
       <c r="D13">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>387</v>
-      </c>
-      <c r="F13">
-        <v>25</v>
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>140</v>
+      </c>
+      <c r="F13" t="s">
+        <v>346</v>
       </c>
       <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="J13" t="s">
-        <v>332</v>
-      </c>
-      <c r="K13" t="s">
-        <v>311</v>
-      </c>
-      <c r="L13">
-        <v>12</v>
-      </c>
-      <c r="M13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>360</v>
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>338</v>
       </c>
       <c r="B14" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -6296,139 +7671,449 @@
       <c r="D14" t="s">
         <v>303</v>
       </c>
-      <c r="E14" t="s">
-        <v>391</v>
-      </c>
-      <c r="F14">
-        <v>25</v>
+      <c r="E14">
+        <v>165</v>
+      </c>
+      <c r="F14" t="s">
+        <v>394</v>
       </c>
       <c r="G14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>347</v>
+      </c>
+      <c r="K14" t="s">
+        <v>301</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
+        <v>348</v>
+      </c>
+      <c r="P14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;8&amp;K0000FFAviva: Internal</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AE0CF6-2782-437B-9F0F-BD2E07E1925F}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
         <v>381</v>
       </c>
-      <c r="B15" t="s">
-        <v>369</v>
-      </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>390</v>
-      </c>
-      <c r="E15" t="s">
-        <v>391</v>
-      </c>
-      <c r="F15">
-        <v>25</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="J15" t="s">
-        <v>325</v>
-      </c>
-      <c r="K15" t="s">
-        <v>311</v>
-      </c>
-      <c r="L15">
-        <v>12</v>
-      </c>
-      <c r="M15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>365</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>370</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>303</v>
-      </c>
-      <c r="E16" t="s">
-        <v>392</v>
-      </c>
-      <c r="F16">
-        <v>25</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>382</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>370</v>
-      </c>
-      <c r="C17">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>390</v>
-      </c>
-      <c r="E17" t="s">
-        <v>392</v>
-      </c>
-      <c r="F17">
-        <v>25</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="J17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K17" t="s">
-        <v>311</v>
-      </c>
-      <c r="L17">
-        <v>12</v>
-      </c>
-      <c r="M17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
         <v>396</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>398</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>399</v>
-      </c>
-      <c r="G18">
-        <v>99</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
+      <c r="C18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/mse-set_creation/kt2cards.xlsx
+++ b/mse-set_creation/kt2cards.xlsx
@@ -8,21 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\projects\M15-Magic-Pack-main\data\mse-set_creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BFDB44-C92B-4ED2-AF66-75343FEAA55F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2D906F-C23E-4DDB-896E-B7554896432F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{99BC69B6-EC6D-4401-A482-489E2ED58CBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{99BC69B6-EC6D-4401-A482-489E2ED58CBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Ref" sheetId="1" r:id="rId1"/>
     <sheet name="Style Ref" sheetId="6" r:id="rId2"/>
     <sheet name="card_fields" sheetId="2" r:id="rId3"/>
     <sheet name="struct" sheetId="8" r:id="rId4"/>
-    <sheet name="extra_card_fields" sheetId="4" r:id="rId5"/>
-    <sheet name="card_style" sheetId="3" r:id="rId6"/>
+    <sheet name="card_style" sheetId="3" r:id="rId5"/>
+    <sheet name="extra_card_fields" sheetId="4" r:id="rId6"/>
     <sheet name="extra_card_style" sheetId="5" r:id="rId7"/>
-    <sheet name="card_style_2" sheetId="9" r:id="rId8"/>
-    <sheet name="extra_card_fields_2" sheetId="10" r:id="rId9"/>
-    <sheet name="extra_card_style_2" sheetId="11" r:id="rId10"/>
+    <sheet name="card_style_std" sheetId="9" r:id="rId8"/>
+    <sheet name="extra_card_fields_std" sheetId="10" r:id="rId9"/>
+    <sheet name="extra_card_style_std" sheetId="11" r:id="rId10"/>
+    <sheet name="card_style_orig" sheetId="12" r:id="rId11"/>
+    <sheet name="extra_card_fields_orig" sheetId="13" r:id="rId12"/>
+    <sheet name="extra_card_style_orig" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="431">
   <si>
     <t>Property</t>
   </si>
@@ -1864,18 +1867,6 @@
     <t>extra_card_style</t>
   </si>
   <si>
-    <t>card_style_2</t>
-  </si>
-  <si>
-    <t>extra_card_fields_2</t>
-  </si>
-  <si>
-    <t>extra_card_style_2</t>
-  </si>
-  <si>
-    <t>orig-style</t>
-  </si>
-  <si>
     <t>Black Ops One</t>
   </si>
   <si>
@@ -1928,6 +1919,18 @@
   </si>
   <si>
     <t>{ w - 25 }</t>
+  </si>
+  <si>
+    <t>card_style_orig</t>
+  </si>
+  <si>
+    <t>extra_card_fields_orig</t>
+  </si>
+  <si>
+    <t>extra_card_style_orig</t>
+  </si>
+  <si>
+    <t>style-mini</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2019,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2056,10 +2059,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2068,13 +2081,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2471,7 +2477,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2485,13 +2491,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="4"/>
       <c r="C3" s="9"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2499,7 +2505,7 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -2507,7 +2513,7 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -2515,7 +2521,7 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
@@ -2523,7 +2529,7 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
@@ -2531,7 +2537,7 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
@@ -2539,7 +2545,7 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
@@ -2547,7 +2553,7 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
@@ -2555,7 +2561,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2563,7 +2569,7 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
       <c r="D13" s="3"/>
@@ -2902,7 +2908,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -2917,7 +2923,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="6"/>
@@ -2926,7 +2932,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="7" t="s">
         <v>58</v>
       </c>
@@ -2939,7 +2945,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="7" t="s">
         <v>60</v>
       </c>
@@ -2954,7 +2960,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="7" t="s">
         <v>63</v>
       </c>
@@ -2969,7 +2975,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -2984,7 +2990,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
       <c r="D48" s="6"/>
@@ -2993,7 +2999,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="7" t="s">
         <v>58</v>
       </c>
@@ -3006,7 +3012,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="7" t="s">
         <v>66</v>
       </c>
@@ -3019,7 +3025,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="7" t="s">
         <v>60</v>
       </c>
@@ -3034,7 +3040,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="7" t="s">
         <v>69</v>
       </c>
@@ -3047,7 +3053,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="7" t="s">
         <v>72</v>
       </c>
@@ -3060,7 +3066,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
+      <c r="A54" s="18"/>
       <c r="B54" s="7" t="s">
         <v>75</v>
       </c>
@@ -3073,7 +3079,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
+      <c r="A55" s="18"/>
       <c r="B55" s="7"/>
       <c r="C55" s="3"/>
       <c r="D55" s="6"/>
@@ -3082,7 +3088,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="18" t="s">
         <v>78</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -3093,7 +3099,7 @@
       <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="3" t="s">
         <v>80</v>
       </c>
@@ -3102,7 +3108,7 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
+      <c r="A58" s="18"/>
       <c r="B58" s="3" t="s">
         <v>81</v>
       </c>
@@ -3122,7 +3128,7 @@
       <c r="E59" s="9"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="18" t="s">
         <v>84</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -3137,7 +3143,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
+      <c r="A61" s="18"/>
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="6"/>
@@ -3146,7 +3152,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
+      <c r="A62" s="18"/>
       <c r="B62" s="7" t="s">
         <v>85</v>
       </c>
@@ -3161,7 +3167,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
+      <c r="A63" s="18"/>
       <c r="B63" s="7" t="s">
         <v>66</v>
       </c>
@@ -3176,7 +3182,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
+      <c r="A64" s="18"/>
       <c r="B64" s="7" t="s">
         <v>88</v>
       </c>
@@ -3191,7 +3197,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
+      <c r="A65" s="18"/>
       <c r="B65" s="7" t="s">
         <v>90</v>
       </c>
@@ -3206,7 +3212,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="18" t="s">
         <v>93</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -3221,7 +3227,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="7"/>
       <c r="C67" s="8"/>
       <c r="D67" s="6"/>
@@ -3230,7 +3236,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
+      <c r="A68" s="18"/>
       <c r="B68" s="7" t="s">
         <v>58</v>
       </c>
@@ -3243,7 +3249,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
+      <c r="A69" s="18"/>
       <c r="B69" s="7" t="s">
         <v>66</v>
       </c>
@@ -3256,7 +3262,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
+      <c r="A70" s="18"/>
       <c r="B70" s="7" t="s">
         <v>60</v>
       </c>
@@ -3271,7 +3277,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
+      <c r="A71" s="18"/>
       <c r="B71" s="7" t="s">
         <v>95</v>
       </c>
@@ -3286,7 +3292,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
+      <c r="A72" s="18"/>
       <c r="B72" s="7" t="s">
         <v>69</v>
       </c>
@@ -4001,6 +4007,1515 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280484E4-0822-4959-AB4B-FA182F77DF8A}">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4">
+        <v>65</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" t="s">
+        <v>304</v>
+      </c>
+      <c r="L5">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>305</v>
+      </c>
+      <c r="K6" t="s">
+        <v>301</v>
+      </c>
+      <c r="L6">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>348</v>
+      </c>
+      <c r="P6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>333</v>
+      </c>
+      <c r="F8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>332</v>
+      </c>
+      <c r="K8" t="s">
+        <v>301</v>
+      </c>
+      <c r="L8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>333</v>
+      </c>
+      <c r="F9" t="s">
+        <v>345</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>332</v>
+      </c>
+      <c r="K9" t="s">
+        <v>301</v>
+      </c>
+      <c r="L9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" t="s">
+        <v>345</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>329</v>
+      </c>
+      <c r="K10" t="s">
+        <v>301</v>
+      </c>
+      <c r="L10">
+        <v>12</v>
+      </c>
+      <c r="O10" t="s">
+        <v>348</v>
+      </c>
+      <c r="P10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" t="s">
+        <v>345</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>329</v>
+      </c>
+      <c r="K11" t="s">
+        <v>301</v>
+      </c>
+      <c r="L11">
+        <v>12</v>
+      </c>
+      <c r="O11" t="s">
+        <v>348</v>
+      </c>
+      <c r="P11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" t="s">
+        <v>310</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>329</v>
+      </c>
+      <c r="K12" t="s">
+        <v>311</v>
+      </c>
+      <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>312</v>
+      </c>
+      <c r="O12" t="s">
+        <v>348</v>
+      </c>
+      <c r="P12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>140</v>
+      </c>
+      <c r="F13" t="s">
+        <v>346</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14">
+        <v>165</v>
+      </c>
+      <c r="F14" t="s">
+        <v>394</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>347</v>
+      </c>
+      <c r="K14" t="s">
+        <v>301</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
+        <v>348</v>
+      </c>
+      <c r="P14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;8&amp;K0000FFAviva: Internal</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9934062-31B9-4A7E-BAC3-74CBD250C1C9}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>382</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;8&amp;K0000FFAviva: Internal</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603F4655-27E5-4D06-9026-569FA2EF30BC}">
+  <dimension ref="A1:T18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>324</v>
+      </c>
+      <c r="L1" t="s">
+        <v>327</v>
+      </c>
+      <c r="M1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N1" t="s">
+        <v>336</v>
+      </c>
+      <c r="O1" t="s">
+        <v>330</v>
+      </c>
+      <c r="P1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>400</v>
+      </c>
+      <c r="R1" t="s">
+        <v>401</v>
+      </c>
+      <c r="S1" t="s">
+        <v>402</v>
+      </c>
+      <c r="T1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K3" t="s">
+        <v>311</v>
+      </c>
+      <c r="L3">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>312</v>
+      </c>
+      <c r="N3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4">
+        <v>65</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>326</v>
+      </c>
+      <c r="K4" t="s">
+        <v>304</v>
+      </c>
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>312</v>
+      </c>
+      <c r="N4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5">
+        <v>140</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E6">
+        <v>140</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>329</v>
+      </c>
+      <c r="K6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L6">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>140</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L7">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" t="s">
+        <v>387</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>325</v>
+      </c>
+      <c r="K9" t="s">
+        <v>311</v>
+      </c>
+      <c r="L9">
+        <v>12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>329</v>
+      </c>
+      <c r="K10" t="s">
+        <v>301</v>
+      </c>
+      <c r="L10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>332</v>
+      </c>
+      <c r="K11" t="s">
+        <v>311</v>
+      </c>
+      <c r="L11">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>387</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K12" t="s">
+        <v>311</v>
+      </c>
+      <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D13">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>332</v>
+      </c>
+      <c r="K13" t="s">
+        <v>311</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" t="s">
+        <v>391</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>390</v>
+      </c>
+      <c r="E15" t="s">
+        <v>391</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>325</v>
+      </c>
+      <c r="K15" t="s">
+        <v>311</v>
+      </c>
+      <c r="L15">
+        <v>12</v>
+      </c>
+      <c r="M15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" t="s">
+        <v>392</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>390</v>
+      </c>
+      <c r="E17" t="s">
+        <v>392</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K17" t="s">
+        <v>311</v>
+      </c>
+      <c r="L17">
+        <v>12</v>
+      </c>
+      <c r="M17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>398</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>399</v>
+      </c>
+      <c r="G18">
+        <v>99</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;8&amp;K0000FFAviva: Internal</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695DB3CD-DC82-440B-862D-60B1A01F1243}">
   <dimension ref="A1:L85"/>
@@ -4190,7 +5705,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -4207,7 +5722,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="12" t="s">
         <v>197</v>
       </c>
@@ -4220,14 +5735,14 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="16" t="b">
+      <c r="C16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="18" t="b">
         <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -4235,16 +5750,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="3" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="12" t="s">
         <v>202</v>
       </c>
@@ -4259,7 +5774,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="12" t="s">
         <v>47</v>
       </c>
@@ -4274,7 +5789,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="12" t="s">
         <v>207</v>
       </c>
@@ -4289,56 +5804,56 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="18">
         <v>0</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="21" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="18"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="18"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="18"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="21" t="s">
         <v>215</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -4346,43 +5861,43 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="18">
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -4390,16 +5905,16 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="16"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="3" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="12" t="s">
         <v>223</v>
       </c>
@@ -4414,7 +5929,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="12" t="s">
         <v>225</v>
       </c>
@@ -4429,68 +5944,68 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="23" t="s">
         <v>233</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -4498,23 +6013,23 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="19"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="23" t="s">
         <v>193</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -4522,32 +6037,32 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="19"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="3" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="19"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="19"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="3" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="12" t="s">
         <v>237</v>
       </c>
@@ -4562,7 +6077,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="12" t="s">
         <v>240</v>
       </c>
@@ -4577,7 +6092,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="12" t="s">
         <v>242</v>
       </c>
@@ -4592,23 +6107,23 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="18" t="s">
         <v>245</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -4619,9 +6134,9 @@
       <c r="A47" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="12" t="s">
         <v>292</v>
       </c>
@@ -4630,9 +6145,9 @@
       <c r="A48" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="12" t="s">
         <v>293</v>
       </c>
@@ -4697,10 +6212,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="20" t="s">
         <v>192</v>
       </c>
       <c r="D53" s="22"/>
@@ -4710,8 +6225,8 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="17"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="20"/>
       <c r="D54" s="22"/>
       <c r="E54" s="3" t="s">
         <v>296</v>
@@ -4719,10 +6234,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="21" t="s">
         <v>256</v>
       </c>
       <c r="D55" s="22"/>
@@ -4732,8 +6247,8 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="22"/>
       <c r="E56" s="8" t="s">
         <v>258</v>
@@ -4741,13 +6256,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="23" t="s">
         <v>238</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -4756,9 +6271,9 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="19"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="23"/>
       <c r="E58" s="3" t="s">
         <v>260</v>
       </c>
@@ -4779,7 +6294,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="18" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="12" t="s">
@@ -4796,7 +6311,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
+      <c r="A61" s="18"/>
       <c r="B61" s="12" t="s">
         <v>263</v>
       </c>
@@ -4811,19 +6326,19 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
+      <c r="A64" s="18"/>
       <c r="B64" s="12" t="s">
         <v>195</v>
       </c>
@@ -4836,14 +6351,14 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="18" t="s">
         <v>93</v>
       </c>
       <c r="B66" s="12" t="s">
@@ -4860,49 +6375,49 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="21" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
+      <c r="A68" s="18"/>
       <c r="B68" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
+      <c r="A69" s="18"/>
       <c r="B69" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
+      <c r="A70" s="18"/>
       <c r="B70" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
+      <c r="A71" s="18"/>
       <c r="B71" s="12" t="s">
         <v>250</v>
       </c>
@@ -4917,11 +6432,11 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
@@ -4941,14 +6456,14 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="18" t="s">
         <v>100</v>
       </c>
       <c r="B75" s="12" t="s">
@@ -4963,7 +6478,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
+      <c r="A76" s="18"/>
       <c r="B76" s="12" t="s">
         <v>278</v>
       </c>
@@ -4973,12 +6488,12 @@
       <c r="D76" s="12">
         <v>1</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="E76" s="21" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
+      <c r="A77" s="18"/>
       <c r="B77" s="12" t="s">
         <v>279</v>
       </c>
@@ -4988,17 +6503,17 @@
       <c r="D77" s="12">
         <v>1</v>
       </c>
-      <c r="E77" s="18"/>
+      <c r="E77" s="21"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B79" s="12" t="s">
@@ -5015,7 +6530,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
+      <c r="A80" s="18"/>
       <c r="B80" s="12" t="s">
         <v>47</v>
       </c>
@@ -5030,49 +6545,49 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
+      <c r="A81" s="18"/>
       <c r="B81" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D81" s="18">
         <v>0</v>
       </c>
-      <c r="E81" s="18" t="s">
+      <c r="E81" s="21" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
+      <c r="A82" s="18"/>
       <c r="B82" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="18"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="21"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
+      <c r="A83" s="18"/>
       <c r="B83" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C83" s="17"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="18"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="21"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
+      <c r="A84" s="18"/>
       <c r="B84" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="18"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="21"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
+      <c r="A85" s="18"/>
       <c r="B85" s="12" t="s">
         <v>280</v>
       </c>
@@ -5088,43 +6603,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:A85"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="E81:E84"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E33:L35"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
     <mergeCell ref="A14:A44"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
@@ -5139,6 +6617,43 @@
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="C38:C41"/>
     <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E33:L35"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:A85"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="E81:E84"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="/doc/type/int" xr:uid="{1A8FBA1A-F624-48B7-980F-F605CF512B03}"/>
@@ -5604,8 +7119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4930578B-17D8-46E6-960F-882D4F61DADE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5614,16 +7129,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="17" t="s">
         <v>408</v>
       </c>
     </row>
@@ -5643,16 +7158,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="C3" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="D3" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -5665,393 +7180,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5D47B2-61E9-470D-A101-5BF6405AD23A}">
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="110" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>377</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>360</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>365</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>380</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>361</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>363</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>362</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>381</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>382</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>384</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>396</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F18" t="s">
-        <v>397</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;8&amp;K0000FFAviva: Internal</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3A9D6F-35A4-4B3A-A101-0038A8519C06}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
@@ -6119,19 +7251,19 @@
         <v>334</v>
       </c>
       <c r="Q1" t="s">
+        <v>411</v>
+      </c>
+      <c r="R1" t="s">
+        <v>412</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="T1" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="R1" t="s">
-        <v>416</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>419</v>
-      </c>
       <c r="U1" s="15" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -6142,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6162,7 +7294,7 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D3">
         <v>60</v>
@@ -6264,13 +7396,13 @@
         <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -6282,7 +7414,7 @@
         <v>11</v>
       </c>
       <c r="U6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -6299,7 +7431,7 @@
         <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -6349,7 +7481,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F8" t="s">
         <v>345</v>
@@ -6381,7 +7513,7 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F9" t="s">
         <v>345</v>
@@ -6413,7 +7545,7 @@
         <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F10" t="s">
         <v>345</v>
@@ -6445,7 +7577,7 @@
         <v>303</v>
       </c>
       <c r="E11" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F11" t="s">
         <v>345</v>
@@ -6483,7 +7615,7 @@
         <v>303</v>
       </c>
       <c r="E12" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F12" t="s">
         <v>345</v>
@@ -6595,6 +7727,389 @@
       </c>
       <c r="G15">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;8&amp;K0000FFAviva: Internal</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5D47B2-61E9-470D-A101-5BF6405AD23A}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="110" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>382</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -6667,10 +8182,10 @@
         <v>330</v>
       </c>
       <c r="P1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Q1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="R1" t="s">
         <v>400</v>
@@ -6745,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6760,7 +8275,7 @@
         <v>329</v>
       </c>
       <c r="K4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L4">
         <v>14</v>
@@ -6780,7 +8295,7 @@
         <v>317</v>
       </c>
       <c r="C5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D5">
         <v>60</v>
@@ -6798,7 +8313,7 @@
         <v>326</v>
       </c>
       <c r="K5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L5">
         <v>14</v>
@@ -6917,7 +8432,7 @@
         <v>303</v>
       </c>
       <c r="E9" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F9">
         <v>25</v>
@@ -6940,7 +8455,7 @@
         <v>383</v>
       </c>
       <c r="E10" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F10">
         <v>25</v>
@@ -6975,7 +8490,7 @@
         <v>383</v>
       </c>
       <c r="E11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F11">
         <v>25</v>
@@ -7007,7 +8522,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F12">
         <v>25</v>
@@ -7042,7 +8557,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -7077,7 +8592,7 @@
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F14">
         <v>25</v>
@@ -7112,7 +8627,7 @@
         <v>303</v>
       </c>
       <c r="E15" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F15">
         <v>25</v>
@@ -7135,7 +8650,7 @@
         <v>390</v>
       </c>
       <c r="E16" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F16">
         <v>25</v>
@@ -7170,7 +8685,7 @@
         <v>303</v>
       </c>
       <c r="E17" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F17">
         <v>25</v>
@@ -7193,7 +8708,7 @@
         <v>390</v>
       </c>
       <c r="E18" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F18">
         <v>25</v>

--- a/mse-set_creation/kt2cards.xlsx
+++ b/mse-set_creation/kt2cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\projects\M15-Magic-Pack-main\data\mse-set_creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2D906F-C23E-4DDB-896E-B7554896432F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3F1DDA-E72D-49CF-BCF5-AC93E8D4A6EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{99BC69B6-EC6D-4401-A482-489E2ED58CBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{99BC69B6-EC6D-4401-A482-489E2ED58CBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Ref" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
     <sheet name="card_style" sheetId="3" r:id="rId5"/>
     <sheet name="extra_card_fields" sheetId="4" r:id="rId6"/>
     <sheet name="extra_card_style" sheetId="5" r:id="rId7"/>
-    <sheet name="card_style_std" sheetId="9" r:id="rId8"/>
-    <sheet name="extra_card_fields_std" sheetId="10" r:id="rId9"/>
-    <sheet name="extra_card_style_std" sheetId="11" r:id="rId10"/>
-    <sheet name="card_style_orig" sheetId="12" r:id="rId11"/>
-    <sheet name="extra_card_fields_orig" sheetId="13" r:id="rId12"/>
-    <sheet name="extra_card_style_orig" sheetId="14" r:id="rId13"/>
+    <sheet name="card_style_mini" sheetId="15" r:id="rId8"/>
+    <sheet name="extra_card_fields_mini" sheetId="16" r:id="rId9"/>
+    <sheet name="extra_card_style_mini" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="419">
   <si>
     <t>Property</t>
   </si>
@@ -1552,21 +1549,12 @@
     <t>{ w - 20 }</t>
   </si>
   <si>
-    <t>{ fontname(card.type) }</t>
-  </si>
-  <si>
     <t>top left shrink if-overflow</t>
   </si>
   <si>
     <t>{ card.effect == "Attack" }</t>
   </si>
   <si>
-    <t>{ h - 110 }</t>
-  </si>
-  <si>
-    <t>{ h - 60 }</t>
-  </si>
-  <si>
     <t>{ w - 10 }</t>
   </si>
   <si>
@@ -1594,12 +1582,6 @@
     <t>cost_caps</t>
   </si>
   <si>
-    <t>if card.type == "Equipment" then "[{card.cost} EP]" else "{card.cost} AP"</t>
-  </si>
-  <si>
-    <t>{ w - 65 }</t>
-  </si>
-  <si>
     <t>white</t>
   </si>
   <si>
@@ -1609,9 +1591,6 @@
     <t>z_index</t>
   </si>
   <si>
-    <t>{ w - 95 }</t>
-  </si>
-  <si>
     <t>font_name</t>
   </si>
   <si>
@@ -1639,9 +1618,6 @@
     <t>center middle</t>
   </si>
   <si>
-    <t>{ h - 160 }</t>
-  </si>
-  <si>
     <t>symbol_font_size</t>
   </si>
   <si>
@@ -1753,9 +1729,6 @@
     <t>{ card.effect == "Attack" and card.wpn_i != "" }</t>
   </si>
   <si>
-    <t>background_color</t>
-  </si>
-  <si>
     <t>card.name</t>
   </si>
   <si>
@@ -1801,9 +1774,6 @@
     <t>{ w - 45 }</t>
   </si>
   <si>
-    <t>{ h - 185 }</t>
-  </si>
-  <si>
     <t>"Special Rules"</t>
   </si>
   <si>
@@ -1813,21 +1783,12 @@
     <t>{ w - 30 }</t>
   </si>
   <si>
-    <t>{ h - 135 }</t>
-  </si>
-  <si>
-    <t>{ h - 85 }</t>
-  </si>
-  <si>
     <t>"Name"</t>
   </si>
   <si>
     <t>{ if card.effect == "Action" then  h - 195  else 0 }</t>
   </si>
   <si>
-    <t>{ if card.effect == "Action" then 70 else if card.effect == "Attack" then h - 255 else h - 100 }</t>
-  </si>
-  <si>
     <t>border</t>
   </si>
   <si>
@@ -1921,16 +1882,16 @@
     <t>{ w - 25 }</t>
   </si>
   <si>
-    <t>card_style_orig</t>
-  </si>
-  <si>
-    <t>extra_card_fields_orig</t>
-  </si>
-  <si>
-    <t>extra_card_style_orig</t>
-  </si>
-  <si>
     <t>style-mini</t>
+  </si>
+  <si>
+    <t>card_style_mini</t>
+  </si>
+  <si>
+    <t>extra_card_fields_mini</t>
+  </si>
+  <si>
+    <t>extra_card_style_mini</t>
   </si>
 </sst>
 </file>
@@ -2056,20 +2017,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3401,1525 +3362,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879F0E03-9DB1-40FD-ACBB-27B52811C550}">
-  <dimension ref="A1:T18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A863EC1-03E4-4928-9F55-7B42C66A4022}">
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s">
-        <v>324</v>
-      </c>
-      <c r="L1" t="s">
-        <v>327</v>
-      </c>
-      <c r="M1" t="s">
-        <v>328</v>
-      </c>
-      <c r="N1" t="s">
-        <v>336</v>
-      </c>
-      <c r="O1" t="s">
-        <v>330</v>
-      </c>
-      <c r="P1" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>400</v>
-      </c>
-      <c r="R1" t="s">
-        <v>401</v>
-      </c>
-      <c r="S1" t="s">
-        <v>402</v>
-      </c>
-      <c r="T1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>29</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>325</v>
-      </c>
-      <c r="K3" t="s">
-        <v>311</v>
-      </c>
-      <c r="L3">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
-        <v>312</v>
-      </c>
-      <c r="N3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4">
-        <v>65</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>326</v>
-      </c>
-      <c r="K4" t="s">
-        <v>304</v>
-      </c>
-      <c r="L4">
-        <v>14</v>
-      </c>
-      <c r="M4" t="s">
-        <v>312</v>
-      </c>
-      <c r="N4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>378</v>
-      </c>
-      <c r="B5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>309</v>
-      </c>
-      <c r="E5">
-        <v>140</v>
-      </c>
-      <c r="F5">
-        <v>25</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>377</v>
-      </c>
-      <c r="B6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>379</v>
-      </c>
-      <c r="E6">
-        <v>140</v>
-      </c>
-      <c r="F6">
-        <v>25</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L6">
-        <v>14</v>
-      </c>
-      <c r="N6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B7" t="s">
-        <v>344</v>
-      </c>
-      <c r="C7" t="s">
-        <v>302</v>
-      </c>
-      <c r="D7">
-        <v>65</v>
-      </c>
-      <c r="E7">
-        <v>140</v>
-      </c>
-      <c r="F7">
-        <v>25</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L7">
-        <v>14</v>
-      </c>
-      <c r="N7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>303</v>
-      </c>
-      <c r="E8" t="s">
-        <v>387</v>
-      </c>
-      <c r="F8">
-        <v>25</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>380</v>
-      </c>
-      <c r="B9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>383</v>
-      </c>
-      <c r="E9" t="s">
-        <v>387</v>
-      </c>
-      <c r="F9">
-        <v>25</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="J9" t="s">
-        <v>325</v>
-      </c>
-      <c r="K9" t="s">
-        <v>311</v>
-      </c>
-      <c r="L9">
-        <v>12</v>
-      </c>
-      <c r="M9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>384</v>
-      </c>
-      <c r="B10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>383</v>
-      </c>
-      <c r="E10" t="s">
-        <v>333</v>
-      </c>
-      <c r="F10">
-        <v>25</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>329</v>
-      </c>
-      <c r="K10" t="s">
-        <v>301</v>
-      </c>
-      <c r="L10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>361</v>
-      </c>
-      <c r="B11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C11" t="s">
-        <v>299</v>
-      </c>
-      <c r="D11">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>387</v>
-      </c>
-      <c r="F11">
-        <v>25</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="J11" t="s">
-        <v>332</v>
-      </c>
-      <c r="K11" t="s">
-        <v>311</v>
-      </c>
-      <c r="L11">
-        <v>12</v>
-      </c>
-      <c r="M11" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>363</v>
-      </c>
-      <c r="B12" t="s">
-        <v>306</v>
-      </c>
-      <c r="C12" t="s">
-        <v>385</v>
-      </c>
-      <c r="D12">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>387</v>
-      </c>
-      <c r="F12">
-        <v>25</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="J12" t="s">
-        <v>335</v>
-      </c>
-      <c r="K12" t="s">
-        <v>311</v>
-      </c>
-      <c r="L12">
-        <v>12</v>
-      </c>
-      <c r="M12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>362</v>
-      </c>
-      <c r="B13" t="s">
-        <v>306</v>
-      </c>
-      <c r="C13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D13">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>387</v>
-      </c>
-      <c r="F13">
-        <v>25</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="J13" t="s">
-        <v>332</v>
-      </c>
-      <c r="K13" t="s">
-        <v>311</v>
-      </c>
-      <c r="L13">
-        <v>12</v>
-      </c>
-      <c r="M13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B14" t="s">
-        <v>369</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>303</v>
-      </c>
-      <c r="E14" t="s">
-        <v>391</v>
-      </c>
-      <c r="F14">
-        <v>25</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>381</v>
-      </c>
-      <c r="B15" t="s">
-        <v>369</v>
-      </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>390</v>
-      </c>
-      <c r="E15" t="s">
-        <v>391</v>
-      </c>
-      <c r="F15">
-        <v>25</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="J15" t="s">
-        <v>325</v>
-      </c>
-      <c r="K15" t="s">
-        <v>311</v>
-      </c>
-      <c r="L15">
-        <v>12</v>
-      </c>
-      <c r="M15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>365</v>
-      </c>
-      <c r="B16" t="s">
-        <v>370</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>303</v>
-      </c>
-      <c r="E16" t="s">
-        <v>392</v>
-      </c>
-      <c r="F16">
-        <v>25</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>382</v>
-      </c>
-      <c r="B17" t="s">
-        <v>370</v>
-      </c>
-      <c r="C17">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>390</v>
-      </c>
-      <c r="E17" t="s">
-        <v>392</v>
-      </c>
-      <c r="F17">
-        <v>25</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="J17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K17" t="s">
-        <v>311</v>
-      </c>
-      <c r="L17">
-        <v>12</v>
-      </c>
-      <c r="M17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>396</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>398</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>399</v>
-      </c>
-      <c r="G18">
-        <v>99</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;8&amp;K0000FFAviva: Internal</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280484E4-0822-4959-AB4B-FA182F77DF8A}">
-  <dimension ref="A1:P15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4">
-        <v>65</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E5">
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <v>25</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>329</v>
-      </c>
-      <c r="K5" t="s">
-        <v>304</v>
-      </c>
-      <c r="L5">
-        <v>18</v>
-      </c>
-      <c r="M5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>303</v>
-      </c>
-      <c r="E6">
-        <v>70</v>
-      </c>
-      <c r="F6" t="s">
-        <v>395</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>305</v>
-      </c>
-      <c r="K6" t="s">
-        <v>301</v>
-      </c>
-      <c r="L6">
-        <v>12</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6" t="s">
-        <v>348</v>
-      </c>
-      <c r="P6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C8" t="s">
-        <v>385</v>
-      </c>
-      <c r="D8">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>333</v>
-      </c>
-      <c r="F8" t="s">
-        <v>345</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>332</v>
-      </c>
-      <c r="K8" t="s">
-        <v>301</v>
-      </c>
-      <c r="L8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" t="s">
-        <v>386</v>
-      </c>
-      <c r="D9">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>333</v>
-      </c>
-      <c r="F9" t="s">
-        <v>345</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-      <c r="J9" t="s">
-        <v>332</v>
-      </c>
-      <c r="K9" t="s">
-        <v>301</v>
-      </c>
-      <c r="L9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>303</v>
-      </c>
-      <c r="E10" t="s">
-        <v>307</v>
-      </c>
-      <c r="F10" t="s">
-        <v>345</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>329</v>
-      </c>
-      <c r="K10" t="s">
-        <v>301</v>
-      </c>
-      <c r="L10">
-        <v>12</v>
-      </c>
-      <c r="O10" t="s">
-        <v>348</v>
-      </c>
-      <c r="P10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>303</v>
-      </c>
-      <c r="E11" t="s">
-        <v>308</v>
-      </c>
-      <c r="F11" t="s">
-        <v>345</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>329</v>
-      </c>
-      <c r="K11" t="s">
-        <v>301</v>
-      </c>
-      <c r="L11">
-        <v>12</v>
-      </c>
-      <c r="O11" t="s">
-        <v>348</v>
-      </c>
-      <c r="P11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>309</v>
-      </c>
-      <c r="E12" t="s">
-        <v>310</v>
-      </c>
-      <c r="F12">
-        <v>25</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="J12" t="s">
-        <v>329</v>
-      </c>
-      <c r="K12" t="s">
-        <v>311</v>
-      </c>
-      <c r="L12">
-        <v>12</v>
-      </c>
-      <c r="M12" t="s">
-        <v>312</v>
-      </c>
-      <c r="O12" t="s">
-        <v>348</v>
-      </c>
-      <c r="P12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="B13" t="s">
-        <v>344</v>
-      </c>
-      <c r="C13" t="s">
-        <v>302</v>
-      </c>
-      <c r="D13">
-        <v>65</v>
-      </c>
-      <c r="E13">
-        <v>140</v>
-      </c>
-      <c r="F13" t="s">
-        <v>346</v>
-      </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="B14" t="s">
-        <v>344</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>303</v>
-      </c>
-      <c r="E14">
-        <v>165</v>
-      </c>
-      <c r="F14" t="s">
-        <v>394</v>
-      </c>
-      <c r="G14">
-        <v>10</v>
-      </c>
-      <c r="J14" t="s">
-        <v>347</v>
-      </c>
-      <c r="K14" t="s">
-        <v>301</v>
-      </c>
-      <c r="L14">
-        <v>12</v>
-      </c>
-      <c r="N14">
-        <v>4</v>
-      </c>
-      <c r="O14" t="s">
-        <v>348</v>
-      </c>
-      <c r="P14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;8&amp;K0000FFAviva: Internal</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9934062-31B9-4A7E-BAC3-74CBD250C1C9}">
-  <dimension ref="A1:N18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" t="s">
-        <v>155</v>
-      </c>
-      <c r="N1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>377</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>360</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>365</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>380</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N11" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>361</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N12" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>363</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N13" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>362</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N14" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>381</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N15" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>382</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N16" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>384</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N17" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>396</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N18" t="s">
-        <v>397</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;8&amp;K0000FFAviva: Internal</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603F4655-27E5-4D06-9026-569FA2EF30BC}">
-  <dimension ref="A1:T18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4939,173 +3395,191 @@
         <v>181</v>
       </c>
       <c r="G1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H1" t="s">
         <v>191</v>
       </c>
       <c r="I1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="J1" t="s">
         <v>47</v>
       </c>
       <c r="K1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M1" t="s">
+        <v>322</v>
+      </c>
+      <c r="N1" t="s">
+        <v>329</v>
+      </c>
+      <c r="O1" t="s">
         <v>324</v>
       </c>
-      <c r="L1" t="s">
-        <v>327</v>
-      </c>
-      <c r="M1" t="s">
-        <v>328</v>
-      </c>
-      <c r="N1" t="s">
-        <v>336</v>
-      </c>
-      <c r="O1" t="s">
-        <v>330</v>
-      </c>
       <c r="P1" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="Q1" t="s">
         <v>400</v>
       </c>
       <c r="R1" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="S1" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="T1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="U1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>384</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>309</v>
+        <v>386</v>
       </c>
       <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>387</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>319</v>
+        <v>386</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>325</v>
-      </c>
-      <c r="K3" t="s">
-        <v>311</v>
-      </c>
-      <c r="L3">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>312</v>
       </c>
-      <c r="N3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4">
-        <v>65</v>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>398</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K4" t="s">
-        <v>304</v>
+        <v>397</v>
       </c>
       <c r="L4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N4" t="s">
+        <v>315</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>378</v>
-      </c>
-      <c r="B5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C5">
+      <c r="K5" t="s">
+        <v>397</v>
+      </c>
+      <c r="L5">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
+        <v>309</v>
+      </c>
+      <c r="N5" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>309</v>
-      </c>
-      <c r="E5">
-        <v>140</v>
-      </c>
-      <c r="F5">
-        <v>25</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B6" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>379</v>
+        <v>306</v>
       </c>
       <c r="E6">
         <v>140</v>
@@ -5116,31 +3590,19 @@
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="J6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L6">
-        <v>14</v>
-      </c>
-      <c r="N6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B7" t="s">
-        <v>344</v>
-      </c>
-      <c r="C7" t="s">
-        <v>302</v>
-      </c>
-      <c r="D7">
-        <v>65</v>
+        <v>337</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>371</v>
       </c>
       <c r="E7">
         <v>140</v>
@@ -5152,33 +3614,33 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L7">
         <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>303</v>
-      </c>
-      <c r="E8" t="s">
-        <v>387</v>
+        <v>337</v>
+      </c>
+      <c r="C8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <v>140</v>
       </c>
       <c r="F8">
         <v>25</v>
@@ -5186,124 +3648,124 @@
       <c r="G8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>320</v>
+      </c>
+      <c r="K8" t="s">
+        <v>308</v>
+      </c>
+      <c r="L8">
+        <v>14</v>
+      </c>
+      <c r="N8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>383</v>
+        <v>303</v>
       </c>
       <c r="E9" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="F9">
         <v>25</v>
       </c>
       <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="J9" t="s">
-        <v>325</v>
-      </c>
-      <c r="K9" t="s">
-        <v>311</v>
-      </c>
-      <c r="L9">
-        <v>12</v>
-      </c>
-      <c r="M9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E10" t="s">
-        <v>333</v>
+        <v>408</v>
       </c>
       <c r="F10">
         <v>25</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="K10" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="L10">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C11" t="s">
-        <v>299</v>
-      </c>
-      <c r="D11">
-        <v>25</v>
+        <v>305</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>375</v>
       </c>
       <c r="E11" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="F11">
         <v>25</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K11" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="L11">
         <v>12</v>
       </c>
-      <c r="M11" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C12" t="s">
-        <v>385</v>
+        <v>299</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="F12">
         <v>25</v>
@@ -5312,33 +3774,33 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="K12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L12">
         <v>12</v>
       </c>
       <c r="M12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C13" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D13">
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -5347,33 +3809,33 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K13" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L13">
         <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B14" t="s">
-        <v>369</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>303</v>
+        <v>305</v>
+      </c>
+      <c r="C14" t="s">
+        <v>378</v>
+      </c>
+      <c r="D14">
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="F14">
         <v>25</v>
@@ -5381,22 +3843,34 @@
       <c r="G14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>326</v>
+      </c>
+      <c r="K14" t="s">
+        <v>308</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>390</v>
+        <v>303</v>
       </c>
       <c r="E15" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="F15">
         <v>25</v>
@@ -5404,34 +3878,22 @@
       <c r="G15">
         <v>3</v>
       </c>
-      <c r="J15" t="s">
-        <v>325</v>
-      </c>
-      <c r="K15" t="s">
-        <v>311</v>
-      </c>
-      <c r="L15">
-        <v>12</v>
-      </c>
-      <c r="M15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B16" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>303</v>
+        <v>381</v>
       </c>
       <c r="E16" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="F16">
         <v>25</v>
@@ -5439,22 +3901,34 @@
       <c r="G16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>319</v>
+      </c>
+      <c r="K16" t="s">
+        <v>308</v>
+      </c>
+      <c r="L16">
+        <v>12</v>
+      </c>
+      <c r="M16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="B17" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>390</v>
+        <v>303</v>
       </c>
       <c r="E17" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="F17">
         <v>25</v>
@@ -5462,49 +3936,40 @@
       <c r="G17">
         <v>3</v>
       </c>
-      <c r="J17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K17" t="s">
-        <v>311</v>
-      </c>
-      <c r="L17">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B18" t="s">
+        <v>363</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>381</v>
+      </c>
+      <c r="E18" t="s">
+        <v>406</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>319</v>
+      </c>
+      <c r="K18" t="s">
+        <v>308</v>
+      </c>
+      <c r="L18">
         <v>12</v>
       </c>
-      <c r="M17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>396</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>398</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>399</v>
-      </c>
-      <c r="G18">
-        <v>99</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
+      <c r="M18" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -5739,7 +4204,7 @@
       <c r="B16" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="18" t="b">
@@ -5752,7 +4217,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="20"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="18"/>
       <c r="E17" s="3" t="s">
         <v>201</v>
@@ -5808,13 +4273,13 @@
       <c r="B21" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="19" t="s">
         <v>172</v>
       </c>
       <c r="D21" s="18">
         <v>0</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="19" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5823,37 +4288,37 @@
       <c r="B22" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="21"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="19" t="s">
         <v>215</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -5865,8 +4330,8 @@
       <c r="B26" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="3" t="s">
         <v>217</v>
       </c>
@@ -5876,8 +4341,8 @@
       <c r="B27" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -5885,8 +4350,8 @@
       <c r="B28" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -5894,7 +4359,7 @@
       <c r="B29" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="19" t="s">
         <v>172</v>
       </c>
       <c r="D29" s="18">
@@ -5907,7 +4372,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
-      <c r="C30" s="21"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="18"/>
       <c r="E30" s="3" t="s">
         <v>285</v>
@@ -5948,7 +4413,7 @@
       <c r="B33" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="19" t="s">
         <v>172</v>
       </c>
       <c r="D33" s="23" t="s">
@@ -5970,7 +4435,7 @@
       <c r="B34" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C34" s="21"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="23"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
@@ -5986,7 +4451,7 @@
       <c r="B35" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="21"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="23"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
@@ -6002,7 +4467,7 @@
       <c r="B36" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="21" t="s">
         <v>232</v>
       </c>
       <c r="D36" s="23" t="s">
@@ -6015,7 +4480,7 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
-      <c r="C37" s="20"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="23"/>
       <c r="E37" s="3" t="s">
         <v>288</v>
@@ -6026,7 +4491,7 @@
       <c r="B38" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="21" t="s">
         <v>192</v>
       </c>
       <c r="D38" s="23" t="s">
@@ -6039,7 +4504,7 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
-      <c r="C39" s="20"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="23"/>
       <c r="E39" s="3" t="s">
         <v>235</v>
@@ -6048,14 +4513,14 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="20"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="23"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
-      <c r="C41" s="20"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="23"/>
       <c r="E41" s="3" t="s">
         <v>236</v>
@@ -6107,11 +4572,11 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
@@ -6215,7 +4680,7 @@
       <c r="B53" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="21" t="s">
         <v>192</v>
       </c>
       <c r="D53" s="22"/>
@@ -6226,7 +4691,7 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="18"/>
-      <c r="C54" s="20"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="22"/>
       <c r="E54" s="3" t="s">
         <v>296</v>
@@ -6237,7 +4702,7 @@
       <c r="B55" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="19" t="s">
         <v>256</v>
       </c>
       <c r="D55" s="22"/>
@@ -6248,7 +4713,7 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="18"/>
-      <c r="C56" s="21"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="22"/>
       <c r="E56" s="8" t="s">
         <v>258</v>
@@ -6259,7 +4724,7 @@
       <c r="B57" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="21" t="s">
         <v>232</v>
       </c>
       <c r="D57" s="23" t="s">
@@ -6272,7 +4737,7 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="18"/>
-      <c r="C58" s="20"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="23"/>
       <c r="E58" s="3" t="s">
         <v>260</v>
@@ -6326,11 +4791,11 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
@@ -6351,11 +4816,11 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
@@ -6379,13 +4844,13 @@
       <c r="B67" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="D67" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="E67" s="21" t="s">
+      <c r="E67" s="19" t="s">
         <v>269</v>
       </c>
     </row>
@@ -6394,27 +4859,27 @@
       <c r="B68" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
       <c r="B70" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
@@ -6432,11 +4897,11 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
@@ -6456,11 +4921,11 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
@@ -6488,7 +4953,7 @@
       <c r="D76" s="12">
         <v>1</v>
       </c>
-      <c r="E76" s="21" t="s">
+      <c r="E76" s="19" t="s">
         <v>298</v>
       </c>
     </row>
@@ -6503,14 +4968,14 @@
       <c r="D77" s="12">
         <v>1</v>
       </c>
-      <c r="E77" s="21"/>
+      <c r="E77" s="19"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
@@ -6549,13 +5014,13 @@
       <c r="B81" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="21" t="s">
         <v>232</v>
       </c>
       <c r="D81" s="18">
         <v>0</v>
       </c>
-      <c r="E81" s="21" t="s">
+      <c r="E81" s="19" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6564,27 +5029,27 @@
       <c r="B82" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C82" s="20"/>
+      <c r="C82" s="21"/>
       <c r="D82" s="18"/>
-      <c r="E82" s="21"/>
+      <c r="E82" s="19"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C83" s="20"/>
+      <c r="C83" s="21"/>
       <c r="D83" s="18"/>
-      <c r="E83" s="21"/>
+      <c r="E83" s="19"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="18"/>
       <c r="B84" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C84" s="20"/>
+      <c r="C84" s="21"/>
       <c r="D84" s="18"/>
-      <c r="E84" s="21"/>
+      <c r="E84" s="19"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>
@@ -6631,22 +5096,18 @@
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="C67:C70"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="D55:D56"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="D57:D58"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="C67:C70"/>
     <mergeCell ref="D67:D70"/>
     <mergeCell ref="E67:E70"/>
     <mergeCell ref="A78:E78"/>
@@ -6654,6 +5115,10 @@
     <mergeCell ref="C81:C84"/>
     <mergeCell ref="D81:D84"/>
     <mergeCell ref="E81:E84"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="E76:E77"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="/doc/type/int" xr:uid="{1A8FBA1A-F624-48B7-980F-F605CF512B03}"/>
@@ -6853,7 +5318,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>126</v>
@@ -6879,7 +5344,7 @@
         <v>128</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="Q4" s="11" t="s">
         <v>125</v>
@@ -6922,7 +5387,7 @@
         <v>169</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -6942,7 +5407,7 @@
         <v>138</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -6962,7 +5427,7 @@
         <v>139</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>139</v>
@@ -7037,10 +5502,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>123</v>
@@ -7051,16 +5516,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>125</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -7068,10 +5533,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>123</v>
@@ -7085,22 +5550,22 @@
         <v>10</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>122</v>
       </c>
       <c r="L17" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="M17" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="M17" s="10" t="s">
-        <v>358</v>
-      </c>
       <c r="Q17" s="10" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -7119,8 +5584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4930578B-17D8-46E6-960F-882D4F61DADE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7129,45 +5594,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>408</v>
+      <c r="A1" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C2" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C3" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="D3" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -7221,49 +5686,49 @@
         <v>181</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>191</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>47</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>334</v>
-      </c>
       <c r="Q1" t="s">
+        <v>399</v>
+      </c>
+      <c r="R1" t="s">
+        <v>400</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="U1" s="15" t="s">
         <v>411</v>
-      </c>
-      <c r="R1" t="s">
-        <v>412</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -7274,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7294,7 +5759,7 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D3">
         <v>60</v>
@@ -7320,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -7332,16 +5797,16 @@
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L4">
         <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -7358,10 +5823,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F5">
         <v>30</v>
@@ -7370,19 +5835,19 @@
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L5">
         <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O5" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="P5">
         <v>12</v>
@@ -7396,13 +5861,13 @@
         <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -7414,7 +5879,7 @@
         <v>11</v>
       </c>
       <c r="U6" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -7425,19 +5890,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E7">
         <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="G7">
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K7" t="s">
         <v>301</v>
@@ -7449,7 +5914,7 @@
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="P7">
         <v>12</v>
@@ -7472,7 +5937,7 @@
         <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C8" t="s">
         <v>299</v>
@@ -7481,16 +5946,16 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="F8" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G8">
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K8" t="s">
         <v>301</v>
@@ -7504,25 +5969,25 @@
         <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C9" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D9">
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="F9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G9">
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K9" t="s">
         <v>301</v>
@@ -7536,25 +6001,25 @@
         <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C10" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D10">
         <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="F10" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K10" t="s">
         <v>301</v>
@@ -7568,7 +6033,7 @@
         <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -7577,16 +6042,16 @@
         <v>303</v>
       </c>
       <c r="E11" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="F11" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K11" t="s">
         <v>301</v>
@@ -7595,7 +6060,7 @@
         <v>12</v>
       </c>
       <c r="O11" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="P11">
         <v>12</v>
@@ -7606,7 +6071,7 @@
         <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -7615,16 +6080,16 @@
         <v>303</v>
       </c>
       <c r="E12" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="F12" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G12">
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K12" t="s">
         <v>301</v>
@@ -7633,7 +6098,7 @@
         <v>12</v>
       </c>
       <c r="O12" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="P12">
         <v>12</v>
@@ -7641,10 +6106,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B13" t="s">
         <v>337</v>
-      </c>
-      <c r="B13" t="s">
-        <v>344</v>
       </c>
       <c r="C13" t="s">
         <v>302</v>
@@ -7656,7 +6121,7 @@
         <v>140</v>
       </c>
       <c r="F13" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -7667,28 +6132,28 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B14" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E14">
         <v>165</v>
       </c>
       <c r="F14" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="G14">
         <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="K14" t="s">
         <v>301</v>
@@ -7700,7 +6165,7 @@
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="P14">
         <v>12</v>
@@ -7743,7 +6208,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F7"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7777,7 +6242,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>123</v>
@@ -7789,7 +6254,7 @@
         <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7797,7 +6262,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>123</v>
@@ -7809,7 +6274,7 @@
         <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7817,7 +6282,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>123</v>
@@ -7829,7 +6294,7 @@
         <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7837,7 +6302,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>123</v>
@@ -7849,7 +6314,7 @@
         <v>123</v>
       </c>
       <c r="F5" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7857,7 +6322,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>123</v>
@@ -7869,7 +6334,7 @@
         <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7877,7 +6342,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>123</v>
@@ -7889,7 +6354,7 @@
         <v>123</v>
       </c>
       <c r="F7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7897,7 +6362,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>123</v>
@@ -7909,7 +6374,7 @@
         <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7917,7 +6382,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>123</v>
@@ -7929,7 +6394,7 @@
         <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7937,7 +6402,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>123</v>
@@ -7949,7 +6414,7 @@
         <v>123</v>
       </c>
       <c r="F10" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7957,7 +6422,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>123</v>
@@ -7969,7 +6434,7 @@
         <v>123</v>
       </c>
       <c r="F11" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7977,7 +6442,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>123</v>
@@ -7989,7 +6454,7 @@
         <v>123</v>
       </c>
       <c r="F12" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7997,7 +6462,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>123</v>
@@ -8009,7 +6474,7 @@
         <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8017,7 +6482,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>123</v>
@@ -8029,7 +6494,7 @@
         <v>123</v>
       </c>
       <c r="F14" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8037,7 +6502,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>123</v>
@@ -8049,7 +6514,7 @@
         <v>123</v>
       </c>
       <c r="F15" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8057,7 +6522,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>123</v>
@@ -8069,7 +6534,7 @@
         <v>123</v>
       </c>
       <c r="F16" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8077,7 +6542,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>123</v>
@@ -8089,7 +6554,7 @@
         <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8097,7 +6562,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>123</v>
@@ -8109,7 +6574,7 @@
         <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -8126,7 +6591,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8155,66 +6620,66 @@
         <v>181</v>
       </c>
       <c r="G1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H1" t="s">
         <v>191</v>
       </c>
       <c r="I1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="J1" t="s">
         <v>47</v>
       </c>
       <c r="K1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M1" t="s">
+        <v>322</v>
+      </c>
+      <c r="N1" t="s">
+        <v>329</v>
+      </c>
+      <c r="O1" t="s">
         <v>324</v>
       </c>
-      <c r="L1" t="s">
-        <v>327</v>
-      </c>
-      <c r="M1" t="s">
-        <v>328</v>
-      </c>
-      <c r="N1" t="s">
-        <v>336</v>
-      </c>
-      <c r="O1" t="s">
-        <v>330</v>
-      </c>
       <c r="P1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="Q1" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="R1" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="S1" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="T1" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="U1" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -8234,13 +6699,13 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -8254,13 +6719,13 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -8272,19 +6737,19 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K4" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="L4">
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="P4">
         <v>5</v>
@@ -8292,10 +6757,10 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C5" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D5">
         <v>60</v>
@@ -8310,33 +6775,33 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K5" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="L5">
         <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B6" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E6">
         <v>140</v>
@@ -8350,16 +6815,16 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E7">
         <v>140</v>
@@ -8371,24 +6836,24 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L7">
         <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C8" t="s">
         <v>302</v>
@@ -8406,24 +6871,24 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L8">
         <v>14</v>
       </c>
       <c r="N8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -8432,7 +6897,7 @@
         <v>303</v>
       </c>
       <c r="E9" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F9">
         <v>25</v>
@@ -8443,19 +6908,19 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C10">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E10" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F10">
         <v>25</v>
@@ -8464,33 +6929,33 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L10">
         <v>12</v>
       </c>
       <c r="M10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E11" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="F11">
         <v>25</v>
@@ -8499,7 +6964,7 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K11" t="s">
         <v>301</v>
@@ -8510,10 +6975,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C12" t="s">
         <v>299</v>
@@ -8522,7 +6987,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F12">
         <v>25</v>
@@ -8531,33 +6996,33 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L12">
         <v>12</v>
       </c>
       <c r="M12" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C13" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D13">
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -8566,33 +7031,33 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="K13" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L13">
         <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C14" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D14">
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F14">
         <v>25</v>
@@ -8601,24 +7066,24 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K14" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L14">
         <v>12</v>
       </c>
       <c r="M14" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -8627,7 +7092,7 @@
         <v>303</v>
       </c>
       <c r="E15" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F15">
         <v>25</v>
@@ -8638,19 +7103,19 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B16" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E16" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F16">
         <v>25</v>
@@ -8659,24 +7124,24 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L16">
         <v>12</v>
       </c>
       <c r="M16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B17" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -8685,7 +7150,7 @@
         <v>303</v>
       </c>
       <c r="E17" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="F17">
         <v>25</v>
@@ -8696,19 +7161,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B18" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C18">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E18" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="F18">
         <v>25</v>
@@ -8717,16 +7182,16 @@
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L18">
         <v>12</v>
       </c>
       <c r="M18" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -8739,80 +7204,107 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C74C4CF-C75F-4CDD-971D-5F99B1CACAE5}">
-  <dimension ref="A1:P15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F02D0C-7F1C-4130-8AE1-9E8E5BA357B5}">
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="15" t="s">
+      <c r="N1" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="O1" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="M1" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>399</v>
+      </c>
+      <c r="R1" t="s">
+        <v>400</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>299</v>
+        <v>398</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -8821,21 +7313,21 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>323</v>
+        <v>398</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -8844,123 +7336,132 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>386</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K4" t="s">
+        <v>308</v>
+      </c>
+      <c r="L4">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E5">
-        <v>40</v>
+        <v>381</v>
+      </c>
+      <c r="E5" t="s">
+        <v>307</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="O5" t="s">
+        <v>341</v>
+      </c>
+      <c r="P5">
+        <v>12</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>303</v>
-      </c>
-      <c r="E6">
-        <v>70</v>
-      </c>
-      <c r="F6" t="s">
-        <v>395</v>
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>413</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
-        <v>305</v>
-      </c>
-      <c r="K6" t="s">
-        <v>301</v>
-      </c>
-      <c r="L6">
-        <v>12</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6" t="s">
-        <v>348</v>
-      </c>
-      <c r="P6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>333</v>
+        <v>131</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>345</v>
+        <v>410</v>
       </c>
       <c r="G7">
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="K7" t="s">
         <v>301</v>
@@ -8968,31 +7469,52 @@
       <c r="L7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P7">
+        <v>12</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C8" t="s">
-        <v>385</v>
+        <v>299</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>333</v>
+        <v>409</v>
       </c>
       <c r="F8" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G8">
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K8" t="s">
         <v>301</v>
@@ -9001,30 +7523,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C9" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D9">
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>333</v>
+        <v>409</v>
       </c>
       <c r="F9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G9">
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K9" t="s">
         <v>301</v>
@@ -9033,30 +7555,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>303</v>
+        <v>305</v>
+      </c>
+      <c r="C10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>307</v>
+        <v>409</v>
       </c>
       <c r="F10" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K10" t="s">
         <v>301</v>
@@ -9064,19 +7586,13 @@
       <c r="L10">
         <v>12</v>
       </c>
-      <c r="O10" t="s">
-        <v>348</v>
-      </c>
-      <c r="P10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -9085,16 +7601,16 @@
         <v>303</v>
       </c>
       <c r="E11" t="s">
-        <v>308</v>
+        <v>405</v>
       </c>
       <c r="F11" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K11" t="s">
         <v>301</v>
@@ -9103,56 +7619,56 @@
         <v>12</v>
       </c>
       <c r="O11" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="P11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>134</v>
+        <v>165</v>
+      </c>
+      <c r="B12" t="s">
+        <v>305</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E12" t="s">
-        <v>310</v>
-      </c>
-      <c r="F12">
-        <v>25</v>
+        <v>404</v>
+      </c>
+      <c r="F12" t="s">
+        <v>338</v>
       </c>
       <c r="G12">
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K12" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="L12">
         <v>12</v>
       </c>
-      <c r="M12" t="s">
-        <v>312</v>
-      </c>
       <c r="O12" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="P12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B13" t="s">
         <v>337</v>
-      </c>
-      <c r="B13" t="s">
-        <v>344</v>
       </c>
       <c r="C13" t="s">
         <v>302</v>
@@ -9164,7 +7680,7 @@
         <v>140</v>
       </c>
       <c r="F13" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -9173,30 +7689,30 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B14" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E14">
         <v>165</v>
       </c>
       <c r="F14" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="G14">
         <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="K14" t="s">
         <v>301</v>
@@ -9208,13 +7724,25 @@
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="P14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>168</v>
       </c>
@@ -9235,19 +7763,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AE0CF6-2782-437B-9F0F-BD2E07E1925F}">
-  <dimension ref="A1:N18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D35EDC1-BA08-4B81-AF1A-78FC89DABCC9}">
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="110" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -9264,39 +7793,15 @@
         <v>142</v>
       </c>
       <c r="F1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" t="s">
-        <v>155</v>
-      </c>
-      <c r="N1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>123</v>
@@ -9307,16 +7812,16 @@
       <c r="E2" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>123</v>
@@ -9327,16 +7832,16 @@
       <c r="E3" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>123</v>
@@ -9347,16 +7852,16 @@
       <c r="E4" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>123</v>
@@ -9367,16 +7872,16 @@
       <c r="E5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>123</v>
@@ -9387,16 +7892,16 @@
       <c r="E6" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>123</v>
@@ -9407,16 +7912,16 @@
       <c r="E7" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>123</v>
@@ -9427,16 +7932,16 @@
       <c r="E8" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>123</v>
@@ -9447,16 +7952,16 @@
       <c r="E9" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>123</v>
@@ -9467,16 +7972,16 @@
       <c r="E10" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>123</v>
@@ -9487,16 +7992,16 @@
       <c r="E11" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N11" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>123</v>
@@ -9507,16 +8012,16 @@
       <c r="E12" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N12" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>123</v>
@@ -9527,16 +8032,16 @@
       <c r="E13" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N13" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>123</v>
@@ -9547,16 +8052,16 @@
       <c r="E14" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N14" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>123</v>
@@ -9567,16 +8072,16 @@
       <c r="E15" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N15" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>123</v>
@@ -9587,16 +8092,16 @@
       <c r="E16" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N16" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>123</v>
@@ -9607,16 +8112,16 @@
       <c r="E17" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N17" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>123</v>
@@ -9627,8 +8132,8 @@
       <c r="E18" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N18" t="s">
-        <v>397</v>
+      <c r="F18" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/mse-set_creation/kt2cards.xlsx
+++ b/mse-set_creation/kt2cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\projects\M15-Magic-Pack-main\data\mse-set_creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3F1DDA-E72D-49CF-BCF5-AC93E8D4A6EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AF2E99-863B-46A8-8ED5-A426203B4243}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{99BC69B6-EC6D-4401-A482-489E2ED58CBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{99BC69B6-EC6D-4401-A482-489E2ED58CBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Ref" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="425">
   <si>
     <t>Property</t>
   </si>
@@ -619,12 +619,6 @@
   </si>
   <si>
     <t>Cost</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>Strategic Ploy,Tactical Ploy,Equipment</t>
   </si>
   <si>
     <t>rule</t>
@@ -1570,9 +1564,6 @@
     <t>background</t>
   </si>
   <si>
-    <t>if card.type == "Equipment" then rgb(0,0,100) else if card.type == "Strategic Ploy" then rgb(120,120,120) else rgb(0,0,0)</t>
-  </si>
-  <si>
     <t>type_caps</t>
   </si>
   <si>
@@ -1892,6 +1883,33 @@
   </si>
   <si>
     <t>extra_card_style_mini</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>Strategic Ploy,Tactical Ploy,Equipment,Strategic Asset</t>
+  </si>
+  <si>
+    <t>-,1,2,3,4</t>
+  </si>
+  <si>
+    <t>{ if card.type == "Strategic Asset" then 0 else 60 }</t>
+  </si>
+  <si>
+    <t>card_type_background()</t>
+  </si>
+  <si>
+    <t>{ if card.type == "Strategic Asset" then w else w-60 }</t>
+  </si>
+  <si>
+    <t>{ if card.type == "Strategic Asset" then "center middle shrink if-overflow" else "left middle shrink if-overflow" }</t>
+  </si>
+  <si>
+    <t>{ card.type != "Strategic Asset" }</t>
+  </si>
+  <si>
+    <t>{ styling.Primary_Colour }</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +1998,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2024,16 +2042,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2041,6 +2056,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2438,7 +2459,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2452,13 +2473,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="4"/>
       <c r="C3" s="9"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2466,7 +2487,7 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -2474,7 +2495,7 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -2482,7 +2503,7 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
@@ -2490,7 +2511,7 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
@@ -2498,7 +2519,7 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
@@ -2506,7 +2527,7 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
@@ -2514,7 +2535,7 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
@@ -2522,7 +2543,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2530,7 +2551,7 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
       <c r="D13" s="3"/>
@@ -2869,7 +2890,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -2884,7 +2905,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="6"/>
@@ -2893,7 +2914,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="7" t="s">
         <v>58</v>
       </c>
@@ -2906,7 +2927,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="7" t="s">
         <v>60</v>
       </c>
@@ -2921,7 +2942,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="7" t="s">
         <v>63</v>
       </c>
@@ -2936,7 +2957,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -2951,7 +2972,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
       <c r="D48" s="6"/>
@@ -2960,7 +2981,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="7" t="s">
         <v>58</v>
       </c>
@@ -2973,7 +2994,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="7" t="s">
         <v>66</v>
       </c>
@@ -2986,7 +3007,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="7" t="s">
         <v>60</v>
       </c>
@@ -3001,7 +3022,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="7" t="s">
         <v>69</v>
       </c>
@@ -3014,7 +3035,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="7" t="s">
         <v>72</v>
       </c>
@@ -3027,7 +3048,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
+      <c r="A54" s="19"/>
       <c r="B54" s="7" t="s">
         <v>75</v>
       </c>
@@ -3040,7 +3061,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
+      <c r="A55" s="19"/>
       <c r="B55" s="7"/>
       <c r="C55" s="3"/>
       <c r="D55" s="6"/>
@@ -3049,7 +3070,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="19" t="s">
         <v>78</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -3060,7 +3081,7 @@
       <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
+      <c r="A57" s="19"/>
       <c r="B57" s="3" t="s">
         <v>80</v>
       </c>
@@ -3069,7 +3090,7 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="3" t="s">
         <v>81</v>
       </c>
@@ -3089,7 +3110,7 @@
       <c r="E59" s="9"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -3104,7 +3125,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="6"/>
@@ -3113,7 +3134,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
+      <c r="A62" s="19"/>
       <c r="B62" s="7" t="s">
         <v>85</v>
       </c>
@@ -3128,7 +3149,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
+      <c r="A63" s="19"/>
       <c r="B63" s="7" t="s">
         <v>66</v>
       </c>
@@ -3143,7 +3164,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
+      <c r="A64" s="19"/>
       <c r="B64" s="7" t="s">
         <v>88</v>
       </c>
@@ -3158,7 +3179,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="18"/>
+      <c r="A65" s="19"/>
       <c r="B65" s="7" t="s">
         <v>90</v>
       </c>
@@ -3173,7 +3194,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="19" t="s">
         <v>93</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -3188,7 +3209,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="18"/>
+      <c r="A67" s="19"/>
       <c r="B67" s="7"/>
       <c r="C67" s="8"/>
       <c r="D67" s="6"/>
@@ -3197,7 +3218,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="18"/>
+      <c r="A68" s="19"/>
       <c r="B68" s="7" t="s">
         <v>58</v>
       </c>
@@ -3210,7 +3231,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="18"/>
+      <c r="A69" s="19"/>
       <c r="B69" s="7" t="s">
         <v>66</v>
       </c>
@@ -3223,7 +3244,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="18"/>
+      <c r="A70" s="19"/>
       <c r="B70" s="7" t="s">
         <v>60</v>
       </c>
@@ -3238,7 +3259,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="18"/>
+      <c r="A71" s="19"/>
       <c r="B71" s="7" t="s">
         <v>95</v>
       </c>
@@ -3253,7 +3274,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="18"/>
+      <c r="A72" s="19"/>
       <c r="B72" s="7" t="s">
         <v>69</v>
       </c>
@@ -3365,8 +3386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A863EC1-03E4-4928-9F55-7B42C66A4022}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3380,81 +3401,81 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
         <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" t="s">
         <v>179</v>
       </c>
-      <c r="F1" t="s">
-        <v>181</v>
-      </c>
       <c r="G1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J1" t="s">
         <v>47</v>
       </c>
       <c r="K1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L1" t="s">
         <v>318</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>319</v>
+      </c>
+      <c r="N1" t="s">
+        <v>326</v>
+      </c>
+      <c r="O1" t="s">
         <v>321</v>
       </c>
-      <c r="M1" t="s">
-        <v>322</v>
-      </c>
-      <c r="N1" t="s">
-        <v>329</v>
-      </c>
-      <c r="O1" t="s">
-        <v>324</v>
-      </c>
       <c r="P1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="Q1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="R1" t="s">
+        <v>385</v>
+      </c>
+      <c r="S1" t="s">
+        <v>386</v>
+      </c>
+      <c r="T1" t="s">
+        <v>387</v>
+      </c>
+      <c r="U1" t="s">
         <v>388</v>
-      </c>
-      <c r="S1" t="s">
-        <v>389</v>
-      </c>
-      <c r="T1" t="s">
-        <v>390</v>
-      </c>
-      <c r="U1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3474,13 +3495,13 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3494,13 +3515,13 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3512,19 +3533,19 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>323</v>
+        <v>422</v>
       </c>
       <c r="K4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L4">
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P4">
         <v>5</v>
@@ -3532,13 +3553,16 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>311</v>
+      </c>
+      <c r="B5" t="s">
+        <v>423</v>
       </c>
       <c r="C5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D5">
-        <v>60</v>
+        <v>395</v>
+      </c>
+      <c r="D5" t="s">
+        <v>419</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3550,19 +3574,19 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L5">
         <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -3570,16 +3594,16 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E6">
         <v>140</v>
@@ -3593,16 +3617,16 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E7">
         <v>140</v>
@@ -3614,27 +3638,27 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L7">
         <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D8">
         <v>65</v>
@@ -3649,33 +3673,33 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L8">
         <v>14</v>
       </c>
       <c r="N8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F9">
         <v>25</v>
@@ -3686,19 +3710,19 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C10">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F10">
         <v>25</v>
@@ -3707,33 +3731,33 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L10">
         <v>12</v>
       </c>
       <c r="M10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E11" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F11">
         <v>25</v>
@@ -3742,10 +3766,10 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L11">
         <v>12</v>
@@ -3753,19 +3777,19 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D12">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F12">
         <v>25</v>
@@ -3774,33 +3798,33 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L12">
         <v>12</v>
       </c>
       <c r="M12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D13">
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -3809,33 +3833,33 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L13">
         <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D14">
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F14">
         <v>25</v>
@@ -3844,33 +3868,33 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L14">
         <v>12</v>
       </c>
       <c r="M14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B15" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E15" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F15">
         <v>25</v>
@@ -3881,19 +3905,19 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E16" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F16">
         <v>25</v>
@@ -3902,33 +3926,33 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L16">
         <v>12</v>
       </c>
       <c r="M16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B17" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C17">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E17" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F17">
         <v>25</v>
@@ -3939,19 +3963,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B18" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C18">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F18">
         <v>25</v>
@@ -3960,16 +3984,16 @@
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L18">
         <v>12</v>
       </c>
       <c r="M18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -4014,7 +4038,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>35</v>
@@ -4023,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4031,125 +4055,125 @@
         <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C9" s="12">
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C10" s="12" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4170,63 +4194,63 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>197</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="12" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>10</v>
@@ -4235,416 +4259,416 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D19" s="12" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="C20" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="12" t="s">
+      <c r="E20" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="C21" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="12" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="18">
-        <v>0</v>
-      </c>
-      <c r="E21" s="19" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="12" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="12" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="12" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="12" t="s">
+      <c r="C25" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="12" t="s">
+      <c r="E25" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D25" s="19" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="12" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="12" t="s">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="12" t="s">
+      <c r="C29" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="19">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" s="18">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="12" t="s">
-        <v>223</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D31" s="12">
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D32" s="12">
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="12" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="3" t="s">
+      <c r="D42" s="9" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="12" t="s">
+      <c r="E42" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D42" s="9" t="s">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="C43" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="12" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="12" t="s">
         <v>240</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="D46" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="12" t="s">
         <v>290</v>
-      </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="12" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
       <c r="E48" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E50" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4656,252 +4680,252 @@
         <v>47</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="D53" s="22"/>
+      <c r="C53" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" s="25"/>
       <c r="E53" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="22"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="25"/>
       <c r="E54" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D55" s="25"/>
+      <c r="E55" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="22"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
-      <c r="B57" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>238</v>
+      <c r="B57" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>236</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="23"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="22"/>
       <c r="E58" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E59" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="12" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
-      <c r="B61" s="12" t="s">
-        <v>263</v>
-      </c>
       <c r="C61" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D61" s="12">
         <v>0</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
+      <c r="A64" s="19"/>
       <c r="B64" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="19" t="s">
         <v>93</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D66" s="12">
         <v>0</v>
       </c>
       <c r="E66" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="B67" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="E67" s="21" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="18"/>
-      <c r="B67" s="12" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C67" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E67" s="19" t="s">
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="19"/>
+      <c r="B69" s="12" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="18"/>
-      <c r="B68" s="12" t="s">
+      <c r="C69" s="20"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="19"/>
+      <c r="B70" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="18"/>
-      <c r="B69" s="12" t="s">
+      <c r="C70" s="20"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="19"/>
+      <c r="B71" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="18"/>
-      <c r="B70" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="18"/>
-      <c r="B71" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>273</v>
-      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
@@ -4911,163 +4935,200 @@
         <v>58</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E73" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="18"/>
+      <c r="A76" s="19"/>
       <c r="B76" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D76" s="12">
         <v>1</v>
       </c>
-      <c r="E76" s="19" t="s">
-        <v>298</v>
+      <c r="E76" s="21" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="18"/>
+      <c r="A77" s="19"/>
       <c r="B77" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D77" s="12">
         <v>1</v>
       </c>
-      <c r="E77" s="19"/>
+      <c r="E77" s="21"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="18"/>
+      <c r="A80" s="19"/>
       <c r="B80" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D80" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="18"/>
+      <c r="A81" s="19"/>
       <c r="B81" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D81" s="19">
+        <v>0</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="19"/>
+      <c r="B82" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C81" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D81" s="18">
-        <v>0</v>
-      </c>
-      <c r="E81" s="19" t="s">
+      <c r="C82" s="20"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="21"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="19"/>
+      <c r="B83" s="12" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="18"/>
-      <c r="B82" s="12" t="s">
+      <c r="C83" s="20"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="21"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="19"/>
+      <c r="B84" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C82" s="21"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="19"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="18"/>
-      <c r="B83" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C83" s="21"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="19"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="18"/>
-      <c r="B84" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C84" s="21"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="19"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="21"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="18"/>
+      <c r="A85" s="19"/>
       <c r="B85" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D85" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="E85" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:A85"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="E81:E84"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E33:L35"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
     <mergeCell ref="A14:A44"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
@@ -5082,43 +5143,6 @@
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="C38:C41"/>
     <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E33:L35"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:A85"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="E81:E84"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="E76:E77"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="/doc/type/int" xr:uid="{1A8FBA1A-F624-48B7-980F-F605CF512B03}"/>
@@ -5168,7 +5192,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5218,34 +5242,34 @@
         <v>26</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>150</v>
       </c>
       <c r="Q1" s="10" t="s">
         <v>66</v>
@@ -5254,22 +5278,22 @@
         <v>69</v>
       </c>
       <c r="S1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="U1" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="W1" s="10" t="s">
         <v>58</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y1" s="10" t="s">
         <v>51</v>
@@ -5309,7 +5333,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>122</v>
@@ -5318,13 +5342,13 @@
         <v>1</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>126</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>130</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5344,13 +5368,13 @@
         <v>128</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="11" t="s">
         <v>125</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>129</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5358,10 +5382,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>123</v>
@@ -5378,16 +5402,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -5395,19 +5419,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>122</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -5415,25 +5439,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>122</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -5441,10 +5465,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -5452,16 +5476,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="R10" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -5469,10 +5493,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -5480,10 +5504,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -5491,10 +5515,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -5502,10 +5526,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>123</v>
@@ -5516,16 +5540,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>125</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -5533,10 +5557,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>123</v>
@@ -5550,22 +5574,22 @@
         <v>10</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>122</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -5582,7 +5606,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4930578B-17D8-46E6-960F-882D4F61DADE}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -5590,49 +5614,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2" t="s">
         <v>393</v>
       </c>
-      <c r="C2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E3" t="s">
         <v>415</v>
-      </c>
-      <c r="B3" t="s">
-        <v>416</v>
-      </c>
-      <c r="C3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D3" t="s">
-        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -5646,10 +5681,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3A9D6F-35A4-4B3A-A101-0038A8519C06}">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5666,72 +5701,75 @@
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>181</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>47</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="O1" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>396</v>
+      </c>
+      <c r="S1" t="s">
+        <v>397</v>
+      </c>
+      <c r="T1" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="S1" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" s="15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -5739,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5751,15 +5789,15 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D3">
         <v>60</v>
@@ -5774,10 +5812,10 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
@@ -5785,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -5797,36 +5835,36 @@
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L4">
         <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
+        <v>307</v>
       </c>
       <c r="R4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F5">
         <v>30</v>
@@ -5835,39 +5873,42 @@
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L5">
         <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O5" t="s">
-        <v>341</v>
-      </c>
-      <c r="P5">
+        <v>424</v>
+      </c>
+      <c r="P5" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q5">
         <v>12</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -5878,34 +5919,34 @@
       <c r="I6" t="s">
         <v>11</v>
       </c>
-      <c r="U6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E7">
         <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G7">
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L7">
         <v>12</v>
@@ -5913,14 +5954,11 @@
       <c r="N7">
         <v>4</v>
       </c>
-      <c r="O7" t="s">
-        <v>341</v>
-      </c>
-      <c r="P7">
+      <c r="P7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q7">
         <v>12</v>
-      </c>
-      <c r="Q7">
-        <v>5</v>
       </c>
       <c r="R7">
         <v>5</v>
@@ -5931,188 +5969,191 @@
       <c r="T7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D8">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G8">
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D9">
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G9">
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L9">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D10">
         <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E11" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L11">
         <v>12</v>
       </c>
-      <c r="O11" t="s">
-        <v>341</v>
-      </c>
-      <c r="P11">
+      <c r="P11" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E12" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G12">
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L12">
         <v>12</v>
       </c>
-      <c r="O12" t="s">
-        <v>341</v>
-      </c>
-      <c r="P12">
+      <c r="P12" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B13" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D13">
         <v>65</v>
@@ -6121,42 +6162,42 @@
         <v>140</v>
       </c>
       <c r="F13" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G13">
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E14">
         <v>165</v>
       </c>
       <c r="F14" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G14">
         <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L14">
         <v>12</v>
@@ -6164,14 +6205,11 @@
       <c r="N14">
         <v>4</v>
       </c>
-      <c r="O14" t="s">
-        <v>341</v>
-      </c>
-      <c r="P14">
+      <c r="P14" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q14">
         <v>12</v>
-      </c>
-      <c r="Q14">
-        <v>5</v>
       </c>
       <c r="R14">
         <v>5</v>
@@ -6182,10 +6220,13 @@
       <c r="T14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>123</v>
@@ -6208,7 +6249,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6228,10 +6269,10 @@
         <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F1" t="s">
         <v>51</v>
@@ -6242,7 +6283,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>123</v>
@@ -6254,7 +6295,7 @@
         <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>311</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6262,7 +6303,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>123</v>
@@ -6274,7 +6315,7 @@
         <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6282,7 +6323,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>123</v>
@@ -6294,7 +6335,7 @@
         <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6302,7 +6343,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>123</v>
@@ -6314,7 +6355,7 @@
         <v>123</v>
       </c>
       <c r="F5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6322,7 +6363,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>123</v>
@@ -6334,7 +6375,7 @@
         <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6342,7 +6383,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>123</v>
@@ -6354,7 +6395,7 @@
         <v>123</v>
       </c>
       <c r="F7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6362,7 +6403,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>123</v>
@@ -6374,7 +6415,7 @@
         <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6382,7 +6423,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>123</v>
@@ -6394,7 +6435,7 @@
         <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6402,7 +6443,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>123</v>
@@ -6414,7 +6455,7 @@
         <v>123</v>
       </c>
       <c r="F10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6422,7 +6463,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>123</v>
@@ -6434,7 +6475,7 @@
         <v>123</v>
       </c>
       <c r="F11" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -6442,7 +6483,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>123</v>
@@ -6454,7 +6495,7 @@
         <v>123</v>
       </c>
       <c r="F12" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6462,7 +6503,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>123</v>
@@ -6474,7 +6515,7 @@
         <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6482,7 +6523,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>123</v>
@@ -6494,7 +6535,7 @@
         <v>123</v>
       </c>
       <c r="F14" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6502,7 +6543,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>123</v>
@@ -6514,7 +6555,7 @@
         <v>123</v>
       </c>
       <c r="F15" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6522,7 +6563,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>123</v>
@@ -6534,7 +6575,7 @@
         <v>123</v>
       </c>
       <c r="F16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6542,7 +6583,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>123</v>
@@ -6554,7 +6595,7 @@
         <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6562,7 +6603,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>123</v>
@@ -6574,7 +6615,7 @@
         <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -6591,7 +6632,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6605,81 +6646,81 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
         <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" t="s">
         <v>179</v>
       </c>
-      <c r="F1" t="s">
-        <v>181</v>
-      </c>
       <c r="G1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J1" t="s">
         <v>47</v>
       </c>
       <c r="K1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L1" t="s">
         <v>318</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>319</v>
+      </c>
+      <c r="N1" t="s">
+        <v>326</v>
+      </c>
+      <c r="O1" t="s">
         <v>321</v>
       </c>
-      <c r="M1" t="s">
-        <v>322</v>
-      </c>
-      <c r="N1" t="s">
-        <v>329</v>
-      </c>
-      <c r="O1" t="s">
-        <v>324</v>
-      </c>
       <c r="P1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="Q1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="R1" t="s">
+        <v>385</v>
+      </c>
+      <c r="S1" t="s">
+        <v>386</v>
+      </c>
+      <c r="T1" t="s">
+        <v>387</v>
+      </c>
+      <c r="U1" t="s">
         <v>388</v>
-      </c>
-      <c r="S1" t="s">
-        <v>389</v>
-      </c>
-      <c r="T1" t="s">
-        <v>390</v>
-      </c>
-      <c r="U1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6699,13 +6740,13 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6719,13 +6760,13 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6737,19 +6778,19 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>323</v>
+        <v>422</v>
       </c>
       <c r="K4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P4">
         <v>5</v>
@@ -6757,13 +6798,16 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>311</v>
+      </c>
+      <c r="B5" t="s">
+        <v>423</v>
       </c>
       <c r="C5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D5">
-        <v>60</v>
+        <v>395</v>
+      </c>
+      <c r="D5" t="s">
+        <v>419</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6775,33 +6819,36 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N5" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E6">
         <v>140</v>
@@ -6815,16 +6862,16 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E7">
         <v>140</v>
@@ -6836,27 +6883,27 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L7">
         <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D8">
         <v>65</v>
@@ -6871,33 +6918,33 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L8">
         <v>14</v>
       </c>
       <c r="N8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F9">
         <v>25</v>
@@ -6908,19 +6955,19 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C10">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F10">
         <v>25</v>
@@ -6929,33 +6976,33 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L10">
         <v>12</v>
       </c>
       <c r="M10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E11" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F11">
         <v>25</v>
@@ -6964,10 +7011,10 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L11">
         <v>12</v>
@@ -6975,19 +7022,19 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D12">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F12">
         <v>25</v>
@@ -6996,33 +7043,33 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L12">
         <v>12</v>
       </c>
       <c r="M12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D13">
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -7031,33 +7078,33 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L13">
         <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D14">
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F14">
         <v>25</v>
@@ -7066,33 +7113,33 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L14">
         <v>12</v>
       </c>
       <c r="M14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B15" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E15" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F15">
         <v>25</v>
@@ -7103,19 +7150,19 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E16" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F16">
         <v>25</v>
@@ -7124,33 +7171,33 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L16">
         <v>12</v>
       </c>
       <c r="M16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B17" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C17">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E17" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F17">
         <v>25</v>
@@ -7161,19 +7208,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B18" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C18">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F18">
         <v>25</v>
@@ -7182,16 +7229,16 @@
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L18">
         <v>12</v>
       </c>
       <c r="M18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -7205,10 +7252,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F02D0C-7F1C-4130-8AE1-9E8E5BA357B5}">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7225,72 +7272,75 @@
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>181</v>
-      </c>
       <c r="G1" s="17" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>47</v>
       </c>
       <c r="K1" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="N1" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="O1" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="O1" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>396</v>
+      </c>
+      <c r="S1" t="s">
+        <v>397</v>
+      </c>
+      <c r="T1" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="S1" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" s="17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -7298,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7310,15 +7360,15 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D3">
         <v>60</v>
@@ -7333,10 +7383,10 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
@@ -7344,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -7356,36 +7406,36 @@
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L4">
         <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
+        <v>307</v>
       </c>
       <c r="R4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F5">
         <v>30</v>
@@ -7394,39 +7444,42 @@
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L5">
         <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O5" t="s">
-        <v>341</v>
-      </c>
-      <c r="P5">
+        <v>424</v>
+      </c>
+      <c r="P5" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q5">
         <v>12</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -7437,34 +7490,34 @@
       <c r="I6" t="s">
         <v>11</v>
       </c>
-      <c r="U6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E7">
         <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G7">
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L7">
         <v>12</v>
@@ -7472,14 +7525,11 @@
       <c r="N7">
         <v>4</v>
       </c>
-      <c r="O7" t="s">
-        <v>341</v>
-      </c>
-      <c r="P7">
+      <c r="P7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q7">
         <v>12</v>
-      </c>
-      <c r="Q7">
-        <v>5</v>
       </c>
       <c r="R7">
         <v>5</v>
@@ -7490,188 +7540,191 @@
       <c r="T7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D8">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G8">
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D9">
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G9">
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L9">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D10">
         <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E11" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L11">
         <v>12</v>
       </c>
-      <c r="O11" t="s">
-        <v>341</v>
-      </c>
-      <c r="P11">
+      <c r="P11" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E12" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G12">
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L12">
         <v>12</v>
       </c>
-      <c r="O12" t="s">
-        <v>341</v>
-      </c>
-      <c r="P12">
+      <c r="P12" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B13" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D13">
         <v>65</v>
@@ -7680,42 +7733,42 @@
         <v>140</v>
       </c>
       <c r="F13" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G13">
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E14">
         <v>165</v>
       </c>
       <c r="F14" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G14">
         <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L14">
         <v>12</v>
@@ -7723,14 +7776,11 @@
       <c r="N14">
         <v>4</v>
       </c>
-      <c r="O14" t="s">
-        <v>341</v>
-      </c>
-      <c r="P14">
+      <c r="P14" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q14">
         <v>12</v>
-      </c>
-      <c r="Q14">
-        <v>5</v>
       </c>
       <c r="R14">
         <v>5</v>
@@ -7741,10 +7791,13 @@
       <c r="T14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>123</v>
@@ -7767,7 +7820,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7787,10 +7840,10 @@
         <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F1" t="s">
         <v>51</v>
@@ -7801,7 +7854,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>123</v>
@@ -7813,7 +7866,7 @@
         <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>311</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7821,7 +7874,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>123</v>
@@ -7833,7 +7886,7 @@
         <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7841,7 +7894,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>123</v>
@@ -7853,7 +7906,7 @@
         <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7861,7 +7914,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>123</v>
@@ -7873,7 +7926,7 @@
         <v>123</v>
       </c>
       <c r="F5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7881,7 +7934,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>123</v>
@@ -7893,7 +7946,7 @@
         <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7901,7 +7954,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>123</v>
@@ -7913,7 +7966,7 @@
         <v>123</v>
       </c>
       <c r="F7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7921,7 +7974,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>123</v>
@@ -7933,7 +7986,7 @@
         <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7941,7 +7994,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>123</v>
@@ -7953,7 +8006,7 @@
         <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7961,7 +8014,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>123</v>
@@ -7973,7 +8026,7 @@
         <v>123</v>
       </c>
       <c r="F10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7981,7 +8034,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>123</v>
@@ -7993,7 +8046,7 @@
         <v>123</v>
       </c>
       <c r="F11" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8001,7 +8054,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>123</v>
@@ -8013,7 +8066,7 @@
         <v>123</v>
       </c>
       <c r="F12" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8021,7 +8074,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>123</v>
@@ -8033,7 +8086,7 @@
         <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8041,7 +8094,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>123</v>
@@ -8053,7 +8106,7 @@
         <v>123</v>
       </c>
       <c r="F14" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8061,7 +8114,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>123</v>
@@ -8073,7 +8126,7 @@
         <v>123</v>
       </c>
       <c r="F15" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8081,7 +8134,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>123</v>
@@ -8093,7 +8146,7 @@
         <v>123</v>
       </c>
       <c r="F16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8101,7 +8154,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>123</v>
@@ -8113,7 +8166,7 @@
         <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8121,7 +8174,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>123</v>
@@ -8133,7 +8186,7 @@
         <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
